--- a/Result/checksun/航運業.xlsx
+++ b/Result/checksun/航運業.xlsx
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="AB2" t="n">
-        <v>-2954094</v>
+        <v>2795305</v>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
@@ -958,7 +958,7 @@
         </is>
       </c>
       <c r="AB3" t="n">
-        <v>-2044056</v>
+        <v>-1243001</v>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         </is>
       </c>
       <c r="AB4" t="n">
-        <v>-1204724</v>
+        <v>2260890</v>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         </is>
       </c>
       <c r="AB5" t="n">
-        <v>4461471</v>
+        <v>7821708</v>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="AB6" t="n">
-        <v>-2371528</v>
+        <v>4682797</v>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         </is>
       </c>
       <c r="AB7" t="n">
-        <v>1851637</v>
+        <v>4771179</v>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         </is>
       </c>
       <c r="AB8" t="n">
-        <v>1287928</v>
+        <v>855330</v>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="AB9" t="n">
-        <v>3172583</v>
+        <v>2706003</v>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
@@ -2273,7 +2273,7 @@
         </is>
       </c>
       <c r="AB10" t="n">
-        <v>1613977</v>
+        <v>-1966566</v>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
@@ -2454,7 +2454,7 @@
         </is>
       </c>
       <c r="AB11" t="n">
-        <v>2072309</v>
+        <v>14265113</v>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         </is>
       </c>
       <c r="AB12" t="n">
-        <v>3881742</v>
+        <v>19139427</v>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         </is>
       </c>
       <c r="AB13" t="n">
-        <v>1305565</v>
+        <v>25209167</v>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         </is>
       </c>
       <c r="AB14" t="n">
-        <v>-2823738624</v>
+        <v>2488427866</v>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         </is>
       </c>
       <c r="AB15" t="n">
-        <v>1625834243</v>
+        <v>4682510456</v>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
@@ -3383,7 +3383,7 @@
         </is>
       </c>
       <c r="AB16" t="n">
-        <v>2267911293</v>
+        <v>8351449178</v>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="AB17" t="n">
-        <v>3641230894</v>
+        <v>5156426503</v>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
@@ -3761,7 +3761,7 @@
         </is>
       </c>
       <c r="AB18" t="n">
-        <v>2645093186</v>
+        <v>2854932244</v>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
@@ -3950,7 +3950,7 @@
         </is>
       </c>
       <c r="AB19" t="n">
-        <v>6393475812</v>
+        <v>5828461412</v>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
@@ -4139,7 +4139,7 @@
         </is>
       </c>
       <c r="AB20" t="n">
-        <v>1670935596</v>
+        <v>1111666390</v>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
@@ -4320,7 +4320,7 @@
         </is>
       </c>
       <c r="AB21" t="n">
-        <v>411583027</v>
+        <v>-1040799679</v>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         </is>
       </c>
       <c r="AB22" t="n">
-        <v>-309937927</v>
+        <v>-802516308</v>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         </is>
       </c>
       <c r="AB23" t="n">
-        <v>-155739987</v>
+        <v>-201035112</v>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
@@ -4863,7 +4863,7 @@
         </is>
       </c>
       <c r="AB24" t="n">
-        <v>-201743969</v>
+        <v>-303303704</v>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
@@ -5044,7 +5044,7 @@
         </is>
       </c>
       <c r="AB25" t="n">
-        <v>-255076473</v>
+        <v>-373417512</v>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
@@ -5233,7 +5233,7 @@
         </is>
       </c>
       <c r="AB26" t="n">
-        <v>-153625693</v>
+        <v>135361161</v>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         </is>
       </c>
       <c r="AB27" t="n">
-        <v>99674411</v>
+        <v>303028882</v>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
@@ -5611,7 +5611,7 @@
         </is>
       </c>
       <c r="AB28" t="n">
-        <v>-484646261</v>
+        <v>323848888</v>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         </is>
       </c>
       <c r="AB29" t="n">
-        <v>348553364</v>
+        <v>519811699</v>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
@@ -5989,7 +5989,7 @@
         </is>
       </c>
       <c r="AB30" t="n">
-        <v>23997150</v>
+        <v>456284076</v>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
@@ -6178,7 +6178,7 @@
         </is>
       </c>
       <c r="AB31" t="n">
-        <v>676477591</v>
+        <v>892152850</v>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
@@ -6359,7 +6359,7 @@
         </is>
       </c>
       <c r="AB32" t="n">
-        <v>-59566510</v>
+        <v>114309603</v>
       </c>
       <c r="AC32" t="inlineStr">
         <is>
@@ -6540,7 +6540,7 @@
         </is>
       </c>
       <c r="AB33" t="n">
-        <v>179357321</v>
+        <v>186956275</v>
       </c>
       <c r="AC33" t="inlineStr">
         <is>
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="AB34" t="n">
-        <v>132017558</v>
+        <v>-93867688</v>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         </is>
       </c>
       <c r="AB35" t="n">
-        <v>230824845</v>
+        <v>-448565621</v>
       </c>
       <c r="AC35" t="inlineStr">
         <is>
@@ -7083,7 +7083,7 @@
         </is>
       </c>
       <c r="AB36" t="n">
-        <v>252929605</v>
+        <v>-421701888</v>
       </c>
       <c r="AC36" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         </is>
       </c>
       <c r="AB37" t="n">
-        <v>83657701</v>
+        <v>-712595465</v>
       </c>
       <c r="AC37" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         </is>
       </c>
       <c r="AB38" t="n">
-        <v>45059</v>
+        <v>50758</v>
       </c>
       <c r="AC38" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         </is>
       </c>
       <c r="AB39" t="n">
-        <v>26815</v>
+        <v>27257</v>
       </c>
       <c r="AC39" t="inlineStr">
         <is>
@@ -7807,7 +7807,7 @@
         </is>
       </c>
       <c r="AB40" t="n">
-        <v>25718</v>
+        <v>23710</v>
       </c>
       <c r="AC40" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         </is>
       </c>
       <c r="AB41" t="n">
-        <v>26297</v>
+        <v>17713</v>
       </c>
       <c r="AC41" t="inlineStr">
         <is>
@@ -8169,7 +8169,7 @@
         </is>
       </c>
       <c r="AB42" t="n">
-        <v>1215</v>
+        <v>10162</v>
       </c>
       <c r="AC42" t="inlineStr">
         <is>
@@ -8350,7 +8350,7 @@
         </is>
       </c>
       <c r="AB43" t="n">
-        <v>-15916</v>
+        <v>-333</v>
       </c>
       <c r="AC43" t="inlineStr">
         <is>
@@ -8531,7 +8531,7 @@
         </is>
       </c>
       <c r="AB44" t="n">
-        <v>-20598</v>
+        <v>-16510</v>
       </c>
       <c r="AC44" t="inlineStr">
         <is>
@@ -8712,7 +8712,7 @@
         </is>
       </c>
       <c r="AB45" t="n">
-        <v>-773</v>
+        <v>3172</v>
       </c>
       <c r="AC45" t="inlineStr">
         <is>
@@ -8893,7 +8893,7 @@
         </is>
       </c>
       <c r="AB46" t="n">
-        <v>13908</v>
+        <v>7948</v>
       </c>
       <c r="AC46" t="inlineStr">
         <is>
@@ -9074,7 +9074,7 @@
         </is>
       </c>
       <c r="AB47" t="n">
-        <v>12014</v>
+        <v>-10269</v>
       </c>
       <c r="AC47" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         </is>
       </c>
       <c r="AB48" t="n">
-        <v>9720</v>
+        <v>-4493</v>
       </c>
       <c r="AC48" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         </is>
       </c>
       <c r="AB49" t="n">
-        <v>1675</v>
+        <v>16062</v>
       </c>
       <c r="AC49" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         </is>
       </c>
       <c r="AB50" t="n">
-        <v>116739945</v>
+        <v>225234824</v>
       </c>
       <c r="AC50" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         </is>
       </c>
       <c r="AB51" t="n">
-        <v>31903886</v>
+        <v>183141961</v>
       </c>
       <c r="AC51" t="inlineStr">
         <is>
@@ -9999,7 +9999,7 @@
         </is>
       </c>
       <c r="AB52" t="n">
-        <v>-21243372</v>
+        <v>167847880</v>
       </c>
       <c r="AC52" t="inlineStr">
         <is>
@@ -10186,7 +10186,7 @@
         </is>
       </c>
       <c r="AB53" t="n">
-        <v>-12664211</v>
+        <v>174973348</v>
       </c>
       <c r="AC53" t="inlineStr">
         <is>
@@ -10373,7 +10373,7 @@
         </is>
       </c>
       <c r="AB54" t="n">
-        <v>-42160143</v>
+        <v>213878810</v>
       </c>
       <c r="AC54" t="inlineStr">
         <is>
@@ -10560,7 +10560,7 @@
         </is>
       </c>
       <c r="AB55" t="n">
-        <v>124754325</v>
+        <v>206004903</v>
       </c>
       <c r="AC55" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         </is>
       </c>
       <c r="AB56" t="n">
-        <v>121159090</v>
+        <v>144932860</v>
       </c>
       <c r="AC56" t="inlineStr">
         <is>
@@ -10934,7 +10934,7 @@
         </is>
       </c>
       <c r="AB57" t="n">
-        <v>193398218</v>
+        <v>256388529</v>
       </c>
       <c r="AC57" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
         </is>
       </c>
       <c r="AB58" t="n">
-        <v>64336927</v>
+        <v>77326948</v>
       </c>
       <c r="AC58" t="inlineStr">
         <is>
@@ -11292,7 +11292,7 @@
         </is>
       </c>
       <c r="AB59" t="n">
-        <v>66478469</v>
+        <v>20326268</v>
       </c>
       <c r="AC59" t="inlineStr">
         <is>
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="AB60" t="n">
-        <v>62640735</v>
+        <v>-60965611</v>
       </c>
       <c r="AC60" t="inlineStr">
         <is>
@@ -11650,7 +11650,7 @@
         </is>
       </c>
       <c r="AB61" t="n">
-        <v>16913651</v>
+        <v>69891161</v>
       </c>
       <c r="AC61" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         </is>
       </c>
       <c r="AB62" t="n">
-        <v>38629287</v>
+        <v>63607685</v>
       </c>
       <c r="AC62" t="inlineStr">
         <is>
@@ -12026,7 +12026,7 @@
         </is>
       </c>
       <c r="AB63" t="n">
-        <v>23704772</v>
+        <v>48327262</v>
       </c>
       <c r="AC63" t="inlineStr">
         <is>
@@ -12215,7 +12215,7 @@
         </is>
       </c>
       <c r="AB64" t="n">
-        <v>7495982</v>
+        <v>25642777</v>
       </c>
       <c r="AC64" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         </is>
       </c>
       <c r="AB65" t="n">
-        <v>-12514434</v>
+        <v>13474597</v>
       </c>
       <c r="AC65" t="inlineStr">
         <is>
@@ -12593,7 +12593,7 @@
         </is>
       </c>
       <c r="AB66" t="n">
-        <v>4600152</v>
+        <v>13591659</v>
       </c>
       <c r="AC66" t="inlineStr">
         <is>
@@ -12782,7 +12782,7 @@
         </is>
       </c>
       <c r="AB67" t="n">
-        <v>19644098</v>
+        <v>6132025</v>
       </c>
       <c r="AC67" t="inlineStr">
         <is>
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="AB68" t="n">
-        <v>37492832</v>
+        <v>3058628</v>
       </c>
       <c r="AC68" t="inlineStr">
         <is>
@@ -13152,7 +13152,7 @@
         </is>
       </c>
       <c r="AB69" t="n">
-        <v>20022338</v>
+        <v>-4765400</v>
       </c>
       <c r="AC69" t="inlineStr">
         <is>
@@ -13333,7 +13333,7 @@
         </is>
       </c>
       <c r="AB70" t="n">
-        <v>-1497303</v>
+        <v>-5869390</v>
       </c>
       <c r="AC70" t="inlineStr">
         <is>
@@ -13514,7 +13514,7 @@
         </is>
       </c>
       <c r="AB71" t="n">
-        <v>-11503801</v>
+        <v>-21517634</v>
       </c>
       <c r="AC71" t="inlineStr">
         <is>
@@ -13695,7 +13695,7 @@
         </is>
       </c>
       <c r="AB72" t="n">
-        <v>-11030831</v>
+        <v>-12379911</v>
       </c>
       <c r="AC72" t="inlineStr">
         <is>
@@ -13876,7 +13876,7 @@
         </is>
       </c>
       <c r="AB73" t="n">
-        <v>-12014770</v>
+        <v>30970709</v>
       </c>
       <c r="AC73" t="inlineStr">
         <is>
@@ -14057,7 +14057,7 @@
         </is>
       </c>
       <c r="AB74" t="n">
-        <v>11421</v>
+        <v>11818</v>
       </c>
       <c r="AC74" t="inlineStr">
         <is>
@@ -14238,7 +14238,7 @@
         </is>
       </c>
       <c r="AB75" t="n">
-        <v>8845</v>
+        <v>11059</v>
       </c>
       <c r="AC75" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="AB76" t="n">
-        <v>9273</v>
+        <v>13345</v>
       </c>
       <c r="AC76" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         </is>
       </c>
       <c r="AB77" t="n">
-        <v>-1033</v>
+        <v>3905</v>
       </c>
       <c r="AC77" t="inlineStr">
         <is>
@@ -14781,7 +14781,7 @@
         </is>
       </c>
       <c r="AB78" t="n">
-        <v>-934</v>
+        <v>7520</v>
       </c>
       <c r="AC78" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         </is>
       </c>
       <c r="AB79" t="n">
-        <v>250</v>
+        <v>7096</v>
       </c>
       <c r="AC79" t="inlineStr">
         <is>
@@ -15143,7 +15143,7 @@
         </is>
       </c>
       <c r="AB80" t="n">
-        <v>1430</v>
+        <v>6076</v>
       </c>
       <c r="AC80" t="inlineStr">
         <is>
@@ -15324,7 +15324,7 @@
         </is>
       </c>
       <c r="AB81" t="n">
-        <v>3148</v>
+        <v>5898</v>
       </c>
       <c r="AC81" t="inlineStr">
         <is>
@@ -15505,7 +15505,7 @@
         </is>
       </c>
       <c r="AB82" t="n">
-        <v>3822</v>
+        <v>6217</v>
       </c>
       <c r="AC82" t="inlineStr">
         <is>
@@ -15686,7 +15686,7 @@
         </is>
       </c>
       <c r="AB83" t="n">
-        <v>3508</v>
+        <v>2767</v>
       </c>
       <c r="AC83" t="inlineStr">
         <is>
@@ -15867,7 +15867,7 @@
         </is>
       </c>
       <c r="AB84" t="n">
-        <v>5306</v>
+        <v>5469</v>
       </c>
       <c r="AC84" t="inlineStr">
         <is>
@@ -16048,7 +16048,7 @@
         </is>
       </c>
       <c r="AB85" t="n">
-        <v>3024</v>
+        <v>-371</v>
       </c>
       <c r="AC85" t="inlineStr">
         <is>
@@ -16186,27 +16186,27 @@
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="T86" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="U86" t="n">
@@ -16367,27 +16367,27 @@
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="S87" t="inlineStr">
         <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="T87" t="inlineStr">
+        <is>
           <t>0.22</t>
-        </is>
-      </c>
-      <c r="T87" t="inlineStr">
-        <is>
-          <t>0.11</t>
         </is>
       </c>
       <c r="U87" t="n">
@@ -16513,11 +16513,11 @@
         <v>0.46</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>37.6</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>100</v>
+        <v>-0.27</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -16531,7 +16531,7 @@
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="N88" t="n">
@@ -16544,27 +16544,27 @@
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="T88" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="U88" t="n">
@@ -16690,11 +16690,11 @@
         <v>0.8</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>37.6</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>100</v>
+        <v>-0.27</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -16708,7 +16708,7 @@
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="N89" t="n">
@@ -16721,27 +16721,27 @@
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="T89" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="U89" t="n">
@@ -16867,11 +16867,11 @@
         <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>37.6</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>100</v>
+        <v>-0.27</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -16885,7 +16885,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="N90" t="n">
@@ -16898,27 +16898,27 @@
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>4.44</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="T90" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="U90" t="n">
@@ -17044,11 +17044,11 @@
         <v>0.98</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>37.6</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>100</v>
+        <v>-0.27</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -17062,7 +17062,7 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="N91" t="n">
@@ -17075,27 +17075,27 @@
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>50.64</t>
+          <t>3.68</t>
         </is>
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="T91" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="U91" t="n">
@@ -17221,11 +17221,11 @@
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>37.6</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>100</v>
+        <v>-0.27</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -17239,7 +17239,7 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="N92" t="n">
@@ -17252,27 +17252,27 @@
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>4.63</t>
+          <t>55.12</t>
         </is>
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="T92" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="U92" t="n">
@@ -17438,22 +17438,22 @@
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="T93" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="U93" t="n">
@@ -17476,7 +17476,7 @@
         </is>
       </c>
       <c r="AB93" t="n">
-        <v>527</v>
+        <v>0</v>
       </c>
       <c r="AC93" t="inlineStr">
         <is>
@@ -17619,22 +17619,22 @@
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="T94" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="U94" t="n">
@@ -17657,7 +17657,7 @@
         </is>
       </c>
       <c r="AB94" t="n">
-        <v>1109</v>
+        <v>0</v>
       </c>
       <c r="AC94" t="inlineStr">
         <is>
@@ -17795,22 +17795,22 @@
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="T95" t="inlineStr">
@@ -17838,7 +17838,7 @@
         </is>
       </c>
       <c r="AB95" t="n">
-        <v>277</v>
+        <v>0</v>
       </c>
       <c r="AC95" t="inlineStr">
         <is>
@@ -17976,27 +17976,27 @@
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T96" t="inlineStr">
         <is>
-          <t>-0.31</t>
+          <t>-0.33</t>
         </is>
       </c>
       <c r="U96" t="n">
@@ -18009,7 +18009,7 @@
         <v>0</v>
       </c>
       <c r="X96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y96" t="inlineStr"/>
       <c r="Z96" t="inlineStr"/>
@@ -18019,7 +18019,7 @@
         </is>
       </c>
       <c r="AB96" t="n">
-        <v>276</v>
+        <v>0</v>
       </c>
       <c r="AC96" t="inlineStr">
         <is>
@@ -18157,27 +18157,27 @@
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="T97" t="inlineStr">
         <is>
-          <t>-0.38</t>
+          <t>-0.42</t>
         </is>
       </c>
       <c r="U97" t="n">
@@ -18190,7 +18190,7 @@
         <v>0</v>
       </c>
       <c r="X97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="inlineStr"/>
@@ -18387,7 +18387,7 @@
         </is>
       </c>
       <c r="AB98" t="n">
-        <v>144060506</v>
+        <v>981782164</v>
       </c>
       <c r="AC98" t="inlineStr">
         <is>
@@ -18574,7 +18574,7 @@
         </is>
       </c>
       <c r="AB99" t="n">
-        <v>66081357</v>
+        <v>791213028</v>
       </c>
       <c r="AC99" t="inlineStr">
         <is>
@@ -18761,7 +18761,7 @@
         </is>
       </c>
       <c r="AB100" t="n">
-        <v>11143455</v>
+        <v>831118442</v>
       </c>
       <c r="AC100" t="inlineStr">
         <is>
@@ -18948,7 +18948,7 @@
         </is>
       </c>
       <c r="AB101" t="n">
-        <v>341502762</v>
+        <v>707883314</v>
       </c>
       <c r="AC101" t="inlineStr">
         <is>
@@ -19135,7 +19135,7 @@
         </is>
       </c>
       <c r="AB102" t="n">
-        <v>623084583</v>
+        <v>703095372</v>
       </c>
       <c r="AC102" t="inlineStr">
         <is>
@@ -19322,7 +19322,7 @@
         </is>
       </c>
       <c r="AB103" t="n">
-        <v>875586792</v>
+        <v>775491749</v>
       </c>
       <c r="AC103" t="inlineStr">
         <is>
@@ -19509,7 +19509,7 @@
         </is>
       </c>
       <c r="AB104" t="n">
-        <v>496218896</v>
+        <v>280025493</v>
       </c>
       <c r="AC104" t="inlineStr">
         <is>
@@ -19688,7 +19688,7 @@
         </is>
       </c>
       <c r="AB105" t="n">
-        <v>102047088</v>
+        <v>-117893104</v>
       </c>
       <c r="AC105" t="inlineStr">
         <is>
@@ -19867,7 +19867,7 @@
         </is>
       </c>
       <c r="AB106" t="n">
-        <v>-55611805</v>
+        <v>-274697592</v>
       </c>
       <c r="AC106" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="AB107" t="n">
-        <v>-129838344</v>
+        <v>-397571546</v>
       </c>
       <c r="AC107" t="inlineStr">
         <is>
@@ -20225,7 +20225,7 @@
         </is>
       </c>
       <c r="AB108" t="n">
-        <v>-22036299</v>
+        <v>-260822367</v>
       </c>
       <c r="AC108" t="inlineStr">
         <is>
@@ -20404,7 +20404,7 @@
         </is>
       </c>
       <c r="AB109" t="n">
-        <v>-44483238</v>
+        <v>-434552731</v>
       </c>
       <c r="AC109" t="inlineStr">
         <is>
@@ -20593,7 +20593,7 @@
         </is>
       </c>
       <c r="AB110" t="n">
-        <v>112295944</v>
+        <v>166920140</v>
       </c>
       <c r="AC110" t="inlineStr">
         <is>
@@ -20782,7 +20782,7 @@
         </is>
       </c>
       <c r="AB111" t="n">
-        <v>155842421</v>
+        <v>552947688</v>
       </c>
       <c r="AC111" t="inlineStr">
         <is>
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="AB112" t="n">
-        <v>117226578</v>
+        <v>460889498</v>
       </c>
       <c r="AC112" t="inlineStr">
         <is>
@@ -21160,7 +21160,7 @@
         </is>
       </c>
       <c r="AB113" t="n">
-        <v>104850743</v>
+        <v>393183281</v>
       </c>
       <c r="AC113" t="inlineStr">
         <is>
@@ -21349,7 +21349,7 @@
         </is>
       </c>
       <c r="AB114" t="n">
-        <v>109844116</v>
+        <v>394920852</v>
       </c>
       <c r="AC114" t="inlineStr">
         <is>
@@ -21538,7 +21538,7 @@
         </is>
       </c>
       <c r="AB115" t="n">
-        <v>-43951737</v>
+        <v>256974348</v>
       </c>
       <c r="AC115" t="inlineStr">
         <is>
@@ -21719,7 +21719,7 @@
         </is>
       </c>
       <c r="AB116" t="n">
-        <v>-50226547</v>
+        <v>128828060</v>
       </c>
       <c r="AC116" t="inlineStr">
         <is>
@@ -21900,7 +21900,7 @@
         </is>
       </c>
       <c r="AB117" t="n">
-        <v>287261151</v>
+        <v>170670737</v>
       </c>
       <c r="AC117" t="inlineStr">
         <is>
@@ -22081,7 +22081,7 @@
         </is>
       </c>
       <c r="AB118" t="n">
-        <v>387614657</v>
+        <v>142162316</v>
       </c>
       <c r="AC118" t="inlineStr">
         <is>
@@ -22262,7 +22262,7 @@
         </is>
       </c>
       <c r="AB119" t="n">
-        <v>338559085</v>
+        <v>368336045</v>
       </c>
       <c r="AC119" t="inlineStr">
         <is>
@@ -22443,7 +22443,7 @@
         </is>
       </c>
       <c r="AB120" t="n">
-        <v>-2184415</v>
+        <v>175195659</v>
       </c>
       <c r="AC120" t="inlineStr">
         <is>
@@ -22624,7 +22624,7 @@
         </is>
       </c>
       <c r="AB121" t="n">
-        <v>-86688572</v>
+        <v>265551032</v>
       </c>
       <c r="AC121" t="inlineStr">
         <is>
@@ -22813,7 +22813,7 @@
         </is>
       </c>
       <c r="AB122" t="n">
-        <v>3452</v>
+        <v>398</v>
       </c>
       <c r="AC122" t="inlineStr">
         <is>
@@ -23002,7 +23002,7 @@
         </is>
       </c>
       <c r="AB123" t="n">
-        <v>-2905</v>
+        <v>-2148</v>
       </c>
       <c r="AC123" t="inlineStr">
         <is>
@@ -23191,7 +23191,7 @@
         </is>
       </c>
       <c r="AB124" t="n">
-        <v>-7231</v>
+        <v>-173</v>
       </c>
       <c r="AC124" t="inlineStr">
         <is>
@@ -23380,7 +23380,7 @@
         </is>
       </c>
       <c r="AB125" t="n">
-        <v>-5938</v>
+        <v>-1674</v>
       </c>
       <c r="AC125" t="inlineStr">
         <is>
@@ -23569,7 +23569,7 @@
         </is>
       </c>
       <c r="AB126" t="n">
-        <v>-4416</v>
+        <v>2839</v>
       </c>
       <c r="AC126" t="inlineStr">
         <is>
@@ -23758,7 +23758,7 @@
         </is>
       </c>
       <c r="AB127" t="n">
-        <v>6002</v>
+        <v>9892</v>
       </c>
       <c r="AC127" t="inlineStr">
         <is>
@@ -23939,7 +23939,7 @@
         </is>
       </c>
       <c r="AB128" t="n">
-        <v>2884</v>
+        <v>2161</v>
       </c>
       <c r="AC128" t="inlineStr">
         <is>
@@ -24120,7 +24120,7 @@
         </is>
       </c>
       <c r="AB129" t="n">
-        <v>5173</v>
+        <v>122</v>
       </c>
       <c r="AC129" t="inlineStr">
         <is>
@@ -24301,7 +24301,7 @@
         </is>
       </c>
       <c r="AB130" t="n">
-        <v>1056</v>
+        <v>-5036</v>
       </c>
       <c r="AC130" t="inlineStr">
         <is>
@@ -24482,7 +24482,7 @@
         </is>
       </c>
       <c r="AB131" t="n">
-        <v>1380</v>
+        <v>-8769</v>
       </c>
       <c r="AC131" t="inlineStr">
         <is>
@@ -24663,7 +24663,7 @@
         </is>
       </c>
       <c r="AB132" t="n">
-        <v>2082</v>
+        <v>-5738</v>
       </c>
       <c r="AC132" t="inlineStr">
         <is>
@@ -24844,7 +24844,7 @@
         </is>
       </c>
       <c r="AB133" t="n">
-        <v>2834</v>
+        <v>-11472</v>
       </c>
       <c r="AC133" t="inlineStr">
         <is>
@@ -25025,7 +25025,7 @@
         </is>
       </c>
       <c r="AB134" t="n">
-        <v>-877268</v>
+        <v>2053655</v>
       </c>
       <c r="AC134" t="inlineStr">
         <is>
@@ -25204,7 +25204,7 @@
         </is>
       </c>
       <c r="AB135" t="n">
-        <v>-706842</v>
+        <v>1929786</v>
       </c>
       <c r="AC135" t="inlineStr">
         <is>
@@ -25383,7 +25383,7 @@
         </is>
       </c>
       <c r="AB136" t="n">
-        <v>-707389</v>
+        <v>1111385</v>
       </c>
       <c r="AC136" t="inlineStr">
         <is>
@@ -25562,7 +25562,7 @@
         </is>
       </c>
       <c r="AB137" t="n">
-        <v>-406701</v>
+        <v>-1161587</v>
       </c>
       <c r="AC137" t="inlineStr">
         <is>
@@ -25741,7 +25741,7 @@
         </is>
       </c>
       <c r="AB138" t="n">
-        <v>-630825</v>
+        <v>-3235929</v>
       </c>
       <c r="AC138" t="inlineStr">
         <is>
@@ -25920,7 +25920,7 @@
         </is>
       </c>
       <c r="AB139" t="n">
-        <v>4115822</v>
+        <v>-3189994</v>
       </c>
       <c r="AC139" t="inlineStr">
         <is>
@@ -26099,7 +26099,7 @@
         </is>
       </c>
       <c r="AB140" t="n">
-        <v>3337624</v>
+        <v>-5959284</v>
       </c>
       <c r="AC140" t="inlineStr">
         <is>
@@ -26278,7 +26278,7 @@
         </is>
       </c>
       <c r="AB141" t="n">
-        <v>3267453</v>
+        <v>-5639233</v>
       </c>
       <c r="AC141" t="inlineStr">
         <is>
@@ -26457,7 +26457,7 @@
         </is>
       </c>
       <c r="AB142" t="n">
-        <v>-2297048</v>
+        <v>-10738319</v>
       </c>
       <c r="AC142" t="inlineStr">
         <is>
@@ -26636,7 +26636,7 @@
         </is>
       </c>
       <c r="AB143" t="n">
-        <v>-4092510</v>
+        <v>-12544863</v>
       </c>
       <c r="AC143" t="inlineStr">
         <is>
@@ -26815,7 +26815,7 @@
         </is>
       </c>
       <c r="AB144" t="n">
-        <v>-5872557</v>
+        <v>-9554218</v>
       </c>
       <c r="AC144" t="inlineStr">
         <is>
@@ -26994,7 +26994,7 @@
         </is>
       </c>
       <c r="AB145" t="n">
-        <v>-5008768</v>
+        <v>-3657534</v>
       </c>
       <c r="AC145" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         </is>
       </c>
       <c r="AB146" t="n">
-        <v>127648</v>
+        <v>307469</v>
       </c>
       <c r="AC146" t="inlineStr">
         <is>
@@ -27354,7 +27354,7 @@
         </is>
       </c>
       <c r="AB147" t="n">
-        <v>-3762</v>
+        <v>60530</v>
       </c>
       <c r="AC147" t="inlineStr">
         <is>
@@ -27535,7 +27535,7 @@
         </is>
       </c>
       <c r="AB148" t="n">
-        <v>-187128</v>
+        <v>17349</v>
       </c>
       <c r="AC148" t="inlineStr">
         <is>
@@ -27716,7 +27716,7 @@
         </is>
       </c>
       <c r="AB149" t="n">
-        <v>-44570</v>
+        <v>347860</v>
       </c>
       <c r="AC149" t="inlineStr">
         <is>
@@ -27897,7 +27897,7 @@
         </is>
       </c>
       <c r="AB150" t="n">
-        <v>-220006</v>
+        <v>377651</v>
       </c>
       <c r="AC150" t="inlineStr">
         <is>
@@ -28078,7 +28078,7 @@
         </is>
       </c>
       <c r="AB151" t="n">
-        <v>87101</v>
+        <v>488881</v>
       </c>
       <c r="AC151" t="inlineStr">
         <is>
@@ -28259,7 +28259,7 @@
         </is>
       </c>
       <c r="AB152" t="n">
-        <v>224391</v>
+        <v>463742</v>
       </c>
       <c r="AC152" t="inlineStr">
         <is>
@@ -28440,7 +28440,7 @@
         </is>
       </c>
       <c r="AB153" t="n">
-        <v>284298</v>
+        <v>487078</v>
       </c>
       <c r="AC153" t="inlineStr">
         <is>
@@ -28621,7 +28621,7 @@
         </is>
       </c>
       <c r="AB154" t="n">
-        <v>117376</v>
+        <v>311484</v>
       </c>
       <c r="AC154" t="inlineStr">
         <is>
@@ -28802,7 +28802,7 @@
         </is>
       </c>
       <c r="AB155" t="n">
-        <v>168039</v>
+        <v>173530</v>
       </c>
       <c r="AC155" t="inlineStr">
         <is>
@@ -28983,7 +28983,7 @@
         </is>
       </c>
       <c r="AB156" t="n">
-        <v>313359</v>
+        <v>311929</v>
       </c>
       <c r="AC156" t="inlineStr">
         <is>
@@ -29164,7 +29164,7 @@
         </is>
       </c>
       <c r="AB157" t="n">
-        <v>284404</v>
+        <v>441379</v>
       </c>
       <c r="AC157" t="inlineStr">
         <is>
@@ -29345,7 +29345,7 @@
         </is>
       </c>
       <c r="AB158" t="n">
-        <v>1292894595</v>
+        <v>1582504938</v>
       </c>
       <c r="AC158" t="inlineStr">
         <is>
@@ -29526,7 +29526,7 @@
         </is>
       </c>
       <c r="AB159" t="n">
-        <v>621972480</v>
+        <v>836284811</v>
       </c>
       <c r="AC159" t="inlineStr">
         <is>
@@ -29707,7 +29707,7 @@
         </is>
       </c>
       <c r="AB160" t="n">
-        <v>-522014496</v>
+        <v>-153630016</v>
       </c>
       <c r="AC160" t="inlineStr">
         <is>
@@ -29888,7 +29888,7 @@
         </is>
       </c>
       <c r="AB161" t="n">
-        <v>-4678894</v>
+        <v>393646420</v>
       </c>
       <c r="AC161" t="inlineStr">
         <is>
@@ -30069,7 +30069,7 @@
         </is>
       </c>
       <c r="AB162" t="n">
-        <v>-1017406646</v>
+        <v>485223598</v>
       </c>
       <c r="AC162" t="inlineStr">
         <is>
@@ -30250,7 +30250,7 @@
         </is>
       </c>
       <c r="AB163" t="n">
-        <v>899168584</v>
+        <v>770314644</v>
       </c>
       <c r="AC163" t="inlineStr">
         <is>
@@ -30431,7 +30431,7 @@
         </is>
       </c>
       <c r="AB164" t="n">
-        <v>294289237</v>
+        <v>-773606749</v>
       </c>
       <c r="AC164" t="inlineStr">
         <is>
@@ -30612,7 +30612,7 @@
         </is>
       </c>
       <c r="AB165" t="n">
-        <v>1231718977</v>
+        <v>451969351</v>
       </c>
       <c r="AC165" t="inlineStr">
         <is>
@@ -30793,7 +30793,7 @@
         </is>
       </c>
       <c r="AB166" t="n">
-        <v>-530784104</v>
+        <v>-1077321177</v>
       </c>
       <c r="AC166" t="inlineStr">
         <is>
@@ -30974,7 +30974,7 @@
         </is>
       </c>
       <c r="AB167" t="n">
-        <v>104036077</v>
+        <v>-1228751539</v>
       </c>
       <c r="AC167" t="inlineStr">
         <is>
@@ -31155,7 +31155,7 @@
         </is>
       </c>
       <c r="AB168" t="n">
-        <v>270911267</v>
+        <v>-909966573</v>
       </c>
       <c r="AC168" t="inlineStr">
         <is>
@@ -31336,7 +31336,7 @@
         </is>
       </c>
       <c r="AB169" t="n">
-        <v>401930164</v>
+        <v>636994797</v>
       </c>
       <c r="AC169" t="inlineStr">
         <is>
@@ -31525,7 +31525,7 @@
         </is>
       </c>
       <c r="AB170" t="n">
-        <v>129852575</v>
+        <v>160834206</v>
       </c>
       <c r="AC170" t="inlineStr">
         <is>
@@ -31714,7 +31714,7 @@
         </is>
       </c>
       <c r="AB171" t="n">
-        <v>59091470</v>
+        <v>94003927</v>
       </c>
       <c r="AC171" t="inlineStr">
         <is>
@@ -31903,7 +31903,7 @@
         </is>
       </c>
       <c r="AB172" t="n">
-        <v>35270541</v>
+        <v>62725145</v>
       </c>
       <c r="AC172" t="inlineStr">
         <is>
@@ -32092,7 +32092,7 @@
         </is>
       </c>
       <c r="AB173" t="n">
-        <v>14743942</v>
+        <v>41226090</v>
       </c>
       <c r="AC173" t="inlineStr">
         <is>
@@ -32281,7 +32281,7 @@
         </is>
       </c>
       <c r="AB174" t="n">
-        <v>-14427985</v>
+        <v>46182361</v>
       </c>
       <c r="AC174" t="inlineStr">
         <is>
@@ -32470,7 +32470,7 @@
         </is>
       </c>
       <c r="AB175" t="n">
-        <v>16805333</v>
+        <v>38446090</v>
       </c>
       <c r="AC175" t="inlineStr">
         <is>
@@ -32651,7 +32651,7 @@
         </is>
       </c>
       <c r="AB176" t="n">
-        <v>16237689</v>
+        <v>-802329</v>
       </c>
       <c r="AC176" t="inlineStr">
         <is>
@@ -32832,7 +32832,7 @@
         </is>
       </c>
       <c r="AB177" t="n">
-        <v>49340442</v>
+        <v>39864089</v>
       </c>
       <c r="AC177" t="inlineStr">
         <is>
@@ -33013,7 +33013,7 @@
         </is>
       </c>
       <c r="AB178" t="n">
-        <v>10649271</v>
+        <v>-4470917</v>
       </c>
       <c r="AC178" t="inlineStr">
         <is>
@@ -33194,7 +33194,7 @@
         </is>
       </c>
       <c r="AB179" t="n">
-        <v>10244459</v>
+        <v>-49669866</v>
       </c>
       <c r="AC179" t="inlineStr">
         <is>
@@ -33375,7 +33375,7 @@
         </is>
       </c>
       <c r="AB180" t="n">
-        <v>11269904</v>
+        <v>-22646504</v>
       </c>
       <c r="AC180" t="inlineStr">
         <is>
@@ -33556,7 +33556,7 @@
         </is>
       </c>
       <c r="AB181" t="n">
-        <v>10991486</v>
+        <v>121652725</v>
       </c>
       <c r="AC181" t="inlineStr">
         <is>
@@ -33745,7 +33745,7 @@
         </is>
       </c>
       <c r="AB182" t="n">
-        <v>-1323165296</v>
+        <v>273953443</v>
       </c>
       <c r="AC182" t="inlineStr">
         <is>
@@ -33934,7 +33934,7 @@
         </is>
       </c>
       <c r="AB183" t="n">
-        <v>-437100447</v>
+        <v>1034100950</v>
       </c>
       <c r="AC183" t="inlineStr">
         <is>
@@ -34123,7 +34123,7 @@
         </is>
       </c>
       <c r="AB184" t="n">
-        <v>890842692</v>
+        <v>2098842433</v>
       </c>
       <c r="AC184" t="inlineStr">
         <is>
@@ -34312,7 +34312,7 @@
         </is>
       </c>
       <c r="AB185" t="n">
-        <v>2100648627</v>
+        <v>3009495762</v>
       </c>
       <c r="AC185" t="inlineStr">
         <is>
@@ -34493,7 +34493,7 @@
         </is>
       </c>
       <c r="AB186" t="n">
-        <v>1078280270</v>
+        <v>3046085137</v>
       </c>
       <c r="AC186" t="inlineStr">
         <is>
@@ -34674,7 +34674,7 @@
         </is>
       </c>
       <c r="AB187" t="n">
-        <v>-186047015</v>
+        <v>1629666952</v>
       </c>
       <c r="AC187" t="inlineStr">
         <is>
@@ -34855,7 +34855,7 @@
         </is>
       </c>
       <c r="AB188" t="n">
-        <v>-503529888</v>
+        <v>501646769</v>
       </c>
       <c r="AC188" t="inlineStr">
         <is>
@@ -35036,7 +35036,7 @@
         </is>
       </c>
       <c r="AB189" t="n">
-        <v>392921127</v>
+        <v>530629431</v>
       </c>
       <c r="AC189" t="inlineStr">
         <is>
@@ -35217,7 +35217,7 @@
         </is>
       </c>
       <c r="AB190" t="n">
-        <v>1394046756</v>
+        <v>-659878374</v>
       </c>
       <c r="AC190" t="inlineStr">
         <is>
@@ -35398,7 +35398,7 @@
         </is>
       </c>
       <c r="AB191" t="n">
-        <v>1412377023</v>
+        <v>2249515804</v>
       </c>
       <c r="AC191" t="inlineStr">
         <is>
@@ -35579,7 +35579,7 @@
         </is>
       </c>
       <c r="AB192" t="n">
-        <v>1574883740</v>
+        <v>2859862511</v>
       </c>
       <c r="AC192" t="inlineStr">
         <is>
@@ -35760,7 +35760,7 @@
         </is>
       </c>
       <c r="AB193" t="n">
-        <v>421667211</v>
+        <v>3435879535</v>
       </c>
       <c r="AC193" t="inlineStr">
         <is>
@@ -35949,7 +35949,7 @@
         </is>
       </c>
       <c r="AB194" t="n">
-        <v>106443178</v>
+        <v>207958013</v>
       </c>
       <c r="AC194" t="inlineStr">
         <is>
@@ -36138,7 +36138,7 @@
         </is>
       </c>
       <c r="AB195" t="n">
-        <v>-86755841</v>
+        <v>213865935</v>
       </c>
       <c r="AC195" t="inlineStr">
         <is>
@@ -36319,7 +36319,7 @@
         </is>
       </c>
       <c r="AB196" t="n">
-        <v>-311898759</v>
+        <v>-9870151</v>
       </c>
       <c r="AC196" t="inlineStr">
         <is>
@@ -36500,7 +36500,7 @@
         </is>
       </c>
       <c r="AB197" t="n">
-        <v>-32592555</v>
+        <v>172113469</v>
       </c>
       <c r="AC197" t="inlineStr">
         <is>
@@ -36681,7 +36681,7 @@
         </is>
       </c>
       <c r="AB198" t="n">
-        <v>209127251</v>
+        <v>108476266</v>
       </c>
       <c r="AC198" t="inlineStr">
         <is>
@@ -36862,7 +36862,7 @@
         </is>
       </c>
       <c r="AB199" t="n">
-        <v>432476254</v>
+        <v>427672125</v>
       </c>
       <c r="AC199" t="inlineStr">
         <is>
@@ -37043,7 +37043,7 @@
         </is>
       </c>
       <c r="AB200" t="n">
-        <v>134107390</v>
+        <v>183651925</v>
       </c>
       <c r="AC200" t="inlineStr">
         <is>
@@ -37224,7 +37224,7 @@
         </is>
       </c>
       <c r="AB201" t="n">
-        <v>91494525</v>
+        <v>-45713325</v>
       </c>
       <c r="AC201" t="inlineStr">
         <is>
@@ -37405,7 +37405,7 @@
         </is>
       </c>
       <c r="AB202" t="n">
-        <v>-130447646</v>
+        <v>-14522811</v>
       </c>
       <c r="AC202" t="inlineStr">
         <is>
@@ -37586,7 +37586,7 @@
         </is>
       </c>
       <c r="AB203" t="n">
-        <v>70598634</v>
+        <v>-52508830</v>
       </c>
       <c r="AC203" t="inlineStr">
         <is>
@@ -37767,7 +37767,7 @@
         </is>
       </c>
       <c r="AB204" t="n">
-        <v>-192145510</v>
+        <v>-331190045</v>
       </c>
       <c r="AC204" t="inlineStr">
         <is>
@@ -37948,7 +37948,7 @@
         </is>
       </c>
       <c r="AB205" t="n">
-        <v>125643517</v>
+        <v>508875</v>
       </c>
       <c r="AC205" t="inlineStr">
         <is>
@@ -38137,7 +38137,7 @@
         </is>
       </c>
       <c r="AB206" t="n">
-        <v>-3454141238</v>
+        <v>-954426709</v>
       </c>
       <c r="AC206" t="inlineStr">
         <is>
@@ -38326,7 +38326,7 @@
         </is>
       </c>
       <c r="AB207" t="n">
-        <v>-2158784301</v>
+        <v>-320374861</v>
       </c>
       <c r="AC207" t="inlineStr">
         <is>
@@ -38515,7 +38515,7 @@
         </is>
       </c>
       <c r="AB208" t="n">
-        <v>-218820314</v>
+        <v>272102352</v>
       </c>
       <c r="AC208" t="inlineStr">
         <is>
@@ -38704,7 +38704,7 @@
         </is>
       </c>
       <c r="AB209" t="n">
-        <v>2637030000</v>
+        <v>2743531433</v>
       </c>
       <c r="AC209" t="inlineStr">
         <is>
@@ -38893,7 +38893,7 @@
         </is>
       </c>
       <c r="AB210" t="n">
-        <v>1679168201</v>
+        <v>2046607085</v>
       </c>
       <c r="AC210" t="inlineStr">
         <is>
@@ -39082,7 +39082,7 @@
         </is>
       </c>
       <c r="AB211" t="n">
-        <v>57963726</v>
+        <v>626909126</v>
       </c>
       <c r="AC211" t="inlineStr">
         <is>
@@ -39263,7 +39263,7 @@
         </is>
       </c>
       <c r="AB212" t="n">
-        <v>-137315471</v>
+        <v>210813659</v>
       </c>
       <c r="AC212" t="inlineStr">
         <is>
@@ -39444,7 +39444,7 @@
         </is>
       </c>
       <c r="AB213" t="n">
-        <v>159241239</v>
+        <v>511970206</v>
       </c>
       <c r="AC213" t="inlineStr">
         <is>
@@ -39625,7 +39625,7 @@
         </is>
       </c>
       <c r="AB214" t="n">
-        <v>432958940</v>
+        <v>391515361</v>
       </c>
       <c r="AC214" t="inlineStr">
         <is>
@@ -39806,7 +39806,7 @@
         </is>
       </c>
       <c r="AB215" t="n">
-        <v>243816904</v>
+        <v>852282677</v>
       </c>
       <c r="AC215" t="inlineStr">
         <is>
@@ -39987,7 +39987,7 @@
         </is>
       </c>
       <c r="AB216" t="n">
-        <v>208197645</v>
+        <v>813326539</v>
       </c>
       <c r="AC216" t="inlineStr">
         <is>
@@ -40168,7 +40168,7 @@
         </is>
       </c>
       <c r="AB217" t="n">
-        <v>135986460</v>
+        <v>824835570</v>
       </c>
       <c r="AC217" t="inlineStr">
         <is>
@@ -40357,7 +40357,7 @@
         </is>
       </c>
       <c r="AB218" t="n">
-        <v>1743543633</v>
+        <v>11399989441</v>
       </c>
       <c r="AC218" t="inlineStr">
         <is>
@@ -40546,7 +40546,7 @@
         </is>
       </c>
       <c r="AB219" t="n">
-        <v>2015366224</v>
+        <v>9566815700</v>
       </c>
       <c r="AC219" t="inlineStr">
         <is>
@@ -40735,7 +40735,7 @@
         </is>
       </c>
       <c r="AB220" t="n">
-        <v>9715934</v>
+        <v>9869055816</v>
       </c>
       <c r="AC220" t="inlineStr">
         <is>
@@ -40924,7 +40924,7 @@
         </is>
       </c>
       <c r="AB221" t="n">
-        <v>5764644432</v>
+        <v>7777470687</v>
       </c>
       <c r="AC221" t="inlineStr">
         <is>
@@ -41113,7 +41113,7 @@
         </is>
       </c>
       <c r="AB222" t="n">
-        <v>7736100946</v>
+        <v>7256071192</v>
       </c>
       <c r="AC222" t="inlineStr">
         <is>
@@ -41302,7 +41302,7 @@
         </is>
       </c>
       <c r="AB223" t="n">
-        <v>11893726420</v>
+        <v>9593012767</v>
       </c>
       <c r="AC223" t="inlineStr">
         <is>
@@ -41491,7 +41491,7 @@
         </is>
       </c>
       <c r="AB224" t="n">
-        <v>3891801376</v>
+        <v>1764960396</v>
       </c>
       <c r="AC224" t="inlineStr">
         <is>
@@ -41672,7 +41672,7 @@
         </is>
       </c>
       <c r="AB225" t="n">
-        <v>-184651470</v>
+        <v>-842248322</v>
       </c>
       <c r="AC225" t="inlineStr">
         <is>
@@ -41853,7 +41853,7 @@
         </is>
       </c>
       <c r="AB226" t="n">
-        <v>-2034386538</v>
+        <v>-2864690053</v>
       </c>
       <c r="AC226" t="inlineStr">
         <is>
@@ -42034,7 +42034,7 @@
         </is>
       </c>
       <c r="AB227" t="n">
-        <v>-1878975121</v>
+        <v>-3281297373</v>
       </c>
       <c r="AC227" t="inlineStr">
         <is>
@@ -42215,7 +42215,7 @@
         </is>
       </c>
       <c r="AB228" t="n">
-        <v>-295378284</v>
+        <v>-4103508932</v>
       </c>
       <c r="AC228" t="inlineStr">
         <is>
@@ -42396,7 +42396,7 @@
         </is>
       </c>
       <c r="AB229" t="n">
-        <v>-266327115</v>
+        <v>-7647694503</v>
       </c>
       <c r="AC229" t="inlineStr">
         <is>
@@ -42585,7 +42585,7 @@
         </is>
       </c>
       <c r="AB230" t="n">
-        <v>61078698</v>
+        <v>84735810</v>
       </c>
       <c r="AC230" t="inlineStr">
         <is>
@@ -42774,7 +42774,7 @@
         </is>
       </c>
       <c r="AB231" t="n">
-        <v>18684688</v>
+        <v>68517661</v>
       </c>
       <c r="AC231" t="inlineStr">
         <is>
@@ -42963,7 +42963,7 @@
         </is>
       </c>
       <c r="AB232" t="n">
-        <v>-10295637</v>
+        <v>56454651</v>
       </c>
       <c r="AC232" t="inlineStr">
         <is>
@@ -43152,7 +43152,7 @@
         </is>
       </c>
       <c r="AB233" t="n">
-        <v>-12594354</v>
+        <v>47151626</v>
       </c>
       <c r="AC233" t="inlineStr">
         <is>
@@ -43341,7 +43341,7 @@
         </is>
       </c>
       <c r="AB234" t="n">
-        <v>-14097674</v>
+        <v>77591075</v>
       </c>
       <c r="AC234" t="inlineStr">
         <is>
@@ -43530,7 +43530,7 @@
         </is>
       </c>
       <c r="AB235" t="n">
-        <v>37639886</v>
+        <v>78953592</v>
       </c>
       <c r="AC235" t="inlineStr">
         <is>
@@ -43711,7 +43711,7 @@
         </is>
       </c>
       <c r="AB236" t="n">
-        <v>36251466</v>
+        <v>57161150</v>
       </c>
       <c r="AC236" t="inlineStr">
         <is>
@@ -43892,7 +43892,7 @@
         </is>
       </c>
       <c r="AB237" t="n">
-        <v>63930647</v>
+        <v>92984237</v>
       </c>
       <c r="AC237" t="inlineStr">
         <is>
@@ -44073,7 +44073,7 @@
         </is>
       </c>
       <c r="AB238" t="n">
-        <v>29110402</v>
+        <v>38377617</v>
       </c>
       <c r="AC238" t="inlineStr">
         <is>
@@ -44254,7 +44254,7 @@
         </is>
       </c>
       <c r="AB239" t="n">
-        <v>23494514</v>
+        <v>4407503</v>
       </c>
       <c r="AC239" t="inlineStr">
         <is>
@@ -44435,7 +44435,7 @@
         </is>
       </c>
       <c r="AB240" t="n">
-        <v>27758102</v>
+        <v>10265117</v>
       </c>
       <c r="AC240" t="inlineStr">
         <is>
@@ -44616,7 +44616,7 @@
         </is>
       </c>
       <c r="AB241" t="n">
-        <v>12203304</v>
+        <v>66490923</v>
       </c>
       <c r="AC241" t="inlineStr">
         <is>
@@ -44805,7 +44805,7 @@
         </is>
       </c>
       <c r="AB242" t="n">
-        <v>8548996516</v>
+        <v>11102546011</v>
       </c>
       <c r="AC242" t="inlineStr">
         <is>
@@ -44994,7 +44994,7 @@
         </is>
       </c>
       <c r="AB243" t="n">
-        <v>1186337213</v>
+        <v>5290610032</v>
       </c>
       <c r="AC243" t="inlineStr">
         <is>
@@ -45183,7 +45183,7 @@
         </is>
       </c>
       <c r="AB244" t="n">
-        <v>1063977839</v>
+        <v>5500401034</v>
       </c>
       <c r="AC244" t="inlineStr">
         <is>
@@ -45372,7 +45372,7 @@
         </is>
       </c>
       <c r="AB245" t="n">
-        <v>1192417710</v>
+        <v>5751733886</v>
       </c>
       <c r="AC245" t="inlineStr">
         <is>
@@ -45561,7 +45561,7 @@
         </is>
       </c>
       <c r="AB246" t="n">
-        <v>3159315334</v>
+        <v>8125923069</v>
       </c>
       <c r="AC246" t="inlineStr">
         <is>
@@ -45750,7 +45750,7 @@
         </is>
       </c>
       <c r="AB247" t="n">
-        <v>3164458020</v>
+        <v>5547135346</v>
       </c>
       <c r="AC247" t="inlineStr">
         <is>
@@ -45939,7 +45939,7 @@
         </is>
       </c>
       <c r="AB248" t="n">
-        <v>1361131785</v>
+        <v>2393359274</v>
       </c>
       <c r="AC248" t="inlineStr">
         <is>
@@ -46128,7 +46128,7 @@
         </is>
       </c>
       <c r="AB249" t="n">
-        <v>944957485</v>
+        <v>5481863134</v>
       </c>
       <c r="AC249" t="inlineStr">
         <is>
@@ -46317,7 +46317,7 @@
         </is>
       </c>
       <c r="AB250" t="n">
-        <v>1271965175</v>
+        <v>2691830316</v>
       </c>
       <c r="AC250" t="inlineStr">
         <is>
@@ -46506,7 +46506,7 @@
         </is>
       </c>
       <c r="AB251" t="n">
-        <v>3198184391</v>
+        <v>876422797</v>
       </c>
       <c r="AC251" t="inlineStr">
         <is>
@@ -46695,7 +46695,7 @@
         </is>
       </c>
       <c r="AB252" t="n">
-        <v>4021650250</v>
+        <v>6884735902</v>
       </c>
       <c r="AC252" t="inlineStr">
         <is>
@@ -46884,7 +46884,7 @@
         </is>
       </c>
       <c r="AB253" t="n">
-        <v>1110712151</v>
+        <v>7894460095</v>
       </c>
       <c r="AC253" t="inlineStr">
         <is>
@@ -47065,7 +47065,7 @@
         </is>
       </c>
       <c r="AB254" t="n">
-        <v>277452948</v>
+        <v>267931655</v>
       </c>
       <c r="AC254" t="inlineStr">
         <is>
@@ -47246,7 +47246,7 @@
         </is>
       </c>
       <c r="AB255" t="n">
-        <v>-4641595</v>
+        <v>32363864</v>
       </c>
       <c r="AC255" t="inlineStr">
         <is>
@@ -47427,7 +47427,7 @@
         </is>
       </c>
       <c r="AB256" t="n">
-        <v>-29823049</v>
+        <v>-6720913</v>
       </c>
       <c r="AC256" t="inlineStr">
         <is>
@@ -47608,7 +47608,7 @@
         </is>
       </c>
       <c r="AB257" t="n">
-        <v>-27372752</v>
+        <v>25534334</v>
       </c>
       <c r="AC257" t="inlineStr">
         <is>
@@ -47789,7 +47789,7 @@
         </is>
       </c>
       <c r="AB258" t="n">
-        <v>-42208367</v>
+        <v>68470647</v>
       </c>
       <c r="AC258" t="inlineStr">
         <is>
@@ -47970,7 +47970,7 @@
         </is>
       </c>
       <c r="AB259" t="n">
-        <v>24992812</v>
+        <v>32396074</v>
       </c>
       <c r="AC259" t="inlineStr">
         <is>
@@ -48151,7 +48151,7 @@
         </is>
       </c>
       <c r="AB260" t="n">
-        <v>17851459</v>
+        <v>-166568769</v>
       </c>
       <c r="AC260" t="inlineStr">
         <is>
@@ -48332,7 +48332,7 @@
         </is>
       </c>
       <c r="AB261" t="n">
-        <v>79213826</v>
+        <v>-35409518</v>
       </c>
       <c r="AC261" t="inlineStr">
         <is>
@@ -48513,7 +48513,7 @@
         </is>
       </c>
       <c r="AB262" t="n">
-        <v>-1890676</v>
+        <v>-161346021</v>
       </c>
       <c r="AC262" t="inlineStr">
         <is>
@@ -48694,7 +48694,7 @@
         </is>
       </c>
       <c r="AB263" t="n">
-        <v>35055627</v>
+        <v>-218953349</v>
       </c>
       <c r="AC263" t="inlineStr">
         <is>
@@ -48875,7 +48875,7 @@
         </is>
       </c>
       <c r="AB264" t="n">
-        <v>31465188</v>
+        <v>564130</v>
       </c>
       <c r="AC264" t="inlineStr">
         <is>
@@ -49056,7 +49056,7 @@
         </is>
       </c>
       <c r="AB265" t="n">
-        <v>9293938</v>
+        <v>104707985</v>
       </c>
       <c r="AC265" t="inlineStr">
         <is>
@@ -49237,7 +49237,7 @@
         </is>
       </c>
       <c r="AB266" t="n">
-        <v>131161764</v>
+        <v>130718736</v>
       </c>
       <c r="AC266" t="inlineStr">
         <is>
@@ -49418,7 +49418,7 @@
         </is>
       </c>
       <c r="AB267" t="n">
-        <v>65384935</v>
+        <v>83674690</v>
       </c>
       <c r="AC267" t="inlineStr">
         <is>
@@ -49599,7 +49599,7 @@
         </is>
       </c>
       <c r="AB268" t="n">
-        <v>-2976927</v>
+        <v>38994363</v>
       </c>
       <c r="AC268" t="inlineStr">
         <is>
@@ -49780,7 +49780,7 @@
         </is>
       </c>
       <c r="AB269" t="n">
-        <v>-6738561</v>
+        <v>34818155</v>
       </c>
       <c r="AC269" t="inlineStr">
         <is>
@@ -49961,7 +49961,7 @@
         </is>
       </c>
       <c r="AB270" t="n">
-        <v>-18500446</v>
+        <v>55283890</v>
       </c>
       <c r="AC270" t="inlineStr">
         <is>
@@ -50142,7 +50142,7 @@
         </is>
       </c>
       <c r="AB271" t="n">
-        <v>20604781</v>
+        <v>55656360</v>
       </c>
       <c r="AC271" t="inlineStr">
         <is>
@@ -50323,7 +50323,7 @@
         </is>
       </c>
       <c r="AB272" t="n">
-        <v>6295533</v>
+        <v>38369793</v>
       </c>
       <c r="AC272" t="inlineStr">
         <is>
@@ -50504,7 +50504,7 @@
         </is>
       </c>
       <c r="AB273" t="n">
-        <v>36790201</v>
+        <v>72762091</v>
       </c>
       <c r="AC273" t="inlineStr">
         <is>
@@ -50685,7 +50685,7 @@
         </is>
       </c>
       <c r="AB274" t="n">
-        <v>21366509</v>
+        <v>32399257</v>
       </c>
       <c r="AC274" t="inlineStr">
         <is>
@@ -50866,7 +50866,7 @@
         </is>
       </c>
       <c r="AB275" t="n">
-        <v>35261183</v>
+        <v>25952866</v>
       </c>
       <c r="AC275" t="inlineStr">
         <is>
@@ -51047,7 +51047,7 @@
         </is>
       </c>
       <c r="AB276" t="n">
-        <v>36994135</v>
+        <v>33105545</v>
       </c>
       <c r="AC276" t="inlineStr">
         <is>
@@ -51228,7 +51228,7 @@
         </is>
       </c>
       <c r="AB277" t="n">
-        <v>13685070</v>
+        <v>71762103</v>
       </c>
       <c r="AC277" t="inlineStr">
         <is>
@@ -51417,7 +51417,7 @@
         </is>
       </c>
       <c r="AB278" t="n">
-        <v>17320944</v>
+        <v>51024488</v>
       </c>
       <c r="AC278" t="inlineStr">
         <is>
@@ -51606,7 +51606,7 @@
         </is>
       </c>
       <c r="AB279" t="n">
-        <v>6321904</v>
+        <v>40432078</v>
       </c>
       <c r="AC279" t="inlineStr">
         <is>
@@ -51795,7 +51795,7 @@
         </is>
       </c>
       <c r="AB280" t="n">
-        <v>-4634261</v>
+        <v>39165280</v>
       </c>
       <c r="AC280" t="inlineStr">
         <is>
@@ -51984,7 +51984,7 @@
         </is>
       </c>
       <c r="AB281" t="n">
-        <v>4604270</v>
+        <v>44995557</v>
       </c>
       <c r="AC281" t="inlineStr">
         <is>
@@ -52173,7 +52173,7 @@
         </is>
       </c>
       <c r="AB282" t="n">
-        <v>21848465</v>
+        <v>45483476</v>
       </c>
       <c r="AC282" t="inlineStr">
         <is>
@@ -52362,7 +52362,7 @@
         </is>
       </c>
       <c r="AB283" t="n">
-        <v>39734670</v>
+        <v>47372827</v>
       </c>
       <c r="AC283" t="inlineStr">
         <is>
@@ -52551,7 +52551,7 @@
         </is>
       </c>
       <c r="AB284" t="n">
-        <v>29099274</v>
+        <v>35992636</v>
       </c>
       <c r="AC284" t="inlineStr">
         <is>
@@ -52740,7 +52740,7 @@
         </is>
       </c>
       <c r="AB285" t="n">
-        <v>12261709</v>
+        <v>21933270</v>
       </c>
       <c r="AC285" t="inlineStr">
         <is>
@@ -52921,7 +52921,7 @@
         </is>
       </c>
       <c r="AB286" t="n">
-        <v>4064871</v>
+        <v>4169722</v>
       </c>
       <c r="AC286" t="inlineStr">
         <is>
@@ -53102,7 +53102,7 @@
         </is>
       </c>
       <c r="AB287" t="n">
-        <v>11292013</v>
+        <v>5115096</v>
       </c>
       <c r="AC287" t="inlineStr">
         <is>
@@ -53283,7 +53283,7 @@
         </is>
       </c>
       <c r="AB288" t="n">
-        <v>11373302</v>
+        <v>13589373</v>
       </c>
       <c r="AC288" t="inlineStr">
         <is>
@@ -53464,7 +53464,7 @@
         </is>
       </c>
       <c r="AB289" t="n">
-        <v>3573286</v>
+        <v>40135480</v>
       </c>
       <c r="AC289" t="inlineStr">
         <is>
@@ -53653,7 +53653,7 @@
         </is>
       </c>
       <c r="AB290" t="n">
-        <v>70399187</v>
+        <v>4827117183</v>
       </c>
       <c r="AC290" t="inlineStr">
         <is>
@@ -53842,7 +53842,7 @@
         </is>
       </c>
       <c r="AB291" t="n">
-        <v>-113682118</v>
+        <v>3589326036</v>
       </c>
       <c r="AC291" t="inlineStr">
         <is>
@@ -54031,7 +54031,7 @@
         </is>
       </c>
       <c r="AB292" t="n">
-        <v>-179353862</v>
+        <v>4362958534</v>
       </c>
       <c r="AC292" t="inlineStr">
         <is>
@@ -54220,7 +54220,7 @@
         </is>
       </c>
       <c r="AB293" t="n">
-        <v>2470174748</v>
+        <v>4445552786</v>
       </c>
       <c r="AC293" t="inlineStr">
         <is>
@@ -54409,7 +54409,7 @@
         </is>
       </c>
       <c r="AB294" t="n">
-        <v>3289821862</v>
+        <v>4550523234</v>
       </c>
       <c r="AC294" t="inlineStr">
         <is>
@@ -54598,7 +54598,7 @@
         </is>
       </c>
       <c r="AB295" t="n">
-        <v>5201335156</v>
+        <v>5448836398</v>
       </c>
       <c r="AC295" t="inlineStr">
         <is>
@@ -54779,7 +54779,7 @@
         </is>
       </c>
       <c r="AB296" t="n">
-        <v>2286543248</v>
+        <v>1523320462</v>
       </c>
       <c r="AC296" t="inlineStr">
         <is>
@@ -54960,7 +54960,7 @@
         </is>
       </c>
       <c r="AB297" t="n">
-        <v>413186292</v>
+        <v>674284441</v>
       </c>
       <c r="AC297" t="inlineStr">
         <is>
@@ -55141,7 +55141,7 @@
         </is>
       </c>
       <c r="AB298" t="n">
-        <v>-659022760</v>
+        <v>-376413164</v>
       </c>
       <c r="AC298" t="inlineStr">
         <is>
@@ -55322,7 +55322,7 @@
         </is>
       </c>
       <c r="AB299" t="n">
-        <v>-311165210</v>
+        <v>-1494218179</v>
       </c>
       <c r="AC299" t="inlineStr">
         <is>
@@ -55503,7 +55503,7 @@
         </is>
       </c>
       <c r="AB300" t="n">
-        <v>847515080</v>
+        <v>-341620726</v>
       </c>
       <c r="AC300" t="inlineStr">
         <is>
@@ -55684,7 +55684,7 @@
         </is>
       </c>
       <c r="AB301" t="n">
-        <v>906524002</v>
+        <v>-2684423520</v>
       </c>
       <c r="AC301" t="inlineStr">
         <is>
@@ -55873,7 +55873,7 @@
         </is>
       </c>
       <c r="AB302" t="n">
-        <v>12947045036</v>
+        <v>11903577311</v>
       </c>
       <c r="AC302" t="inlineStr">
         <is>
@@ -56062,7 +56062,7 @@
         </is>
       </c>
       <c r="AB303" t="n">
-        <v>1975032306</v>
+        <v>2759962286</v>
       </c>
       <c r="AC303" t="inlineStr">
         <is>
@@ -56251,7 +56251,7 @@
         </is>
       </c>
       <c r="AB304" t="n">
-        <v>-53193784</v>
+        <v>-372033590</v>
       </c>
       <c r="AC304" t="inlineStr">
         <is>
@@ -56440,7 +56440,7 @@
         </is>
       </c>
       <c r="AB305" t="n">
-        <v>-370269879</v>
+        <v>-3153730505</v>
       </c>
       <c r="AC305" t="inlineStr">
         <is>
@@ -56629,7 +56629,7 @@
         </is>
       </c>
       <c r="AB306" t="n">
-        <v>-896855772</v>
+        <v>-506320390</v>
       </c>
       <c r="AC306" t="inlineStr">
         <is>
@@ -56818,7 +56818,7 @@
         </is>
       </c>
       <c r="AB307" t="n">
-        <v>2158107542</v>
+        <v>-1627876173</v>
       </c>
       <c r="AC307" t="inlineStr">
         <is>
@@ -57007,7 +57007,7 @@
         </is>
       </c>
       <c r="AB308" t="n">
-        <v>-673197846</v>
+        <v>-5027786372</v>
       </c>
       <c r="AC308" t="inlineStr">
         <is>
@@ -57196,7 +57196,7 @@
         </is>
       </c>
       <c r="AB309" t="n">
-        <v>1681785752</v>
+        <v>730608684</v>
       </c>
       <c r="AC309" t="inlineStr">
         <is>
@@ -57377,7 +57377,7 @@
         </is>
       </c>
       <c r="AB310" t="n">
-        <v>-2476947348</v>
+        <v>-4255650990</v>
       </c>
       <c r="AC310" t="inlineStr">
         <is>
@@ -57558,7 +57558,7 @@
         </is>
       </c>
       <c r="AB311" t="n">
-        <v>-2110262780</v>
+        <v>-4910007883</v>
       </c>
       <c r="AC311" t="inlineStr">
         <is>
@@ -57739,7 +57739,7 @@
         </is>
       </c>
       <c r="AB312" t="n">
-        <v>-1291250370</v>
+        <v>-11763826042</v>
       </c>
       <c r="AC312" t="inlineStr">
         <is>
@@ -57920,7 +57920,7 @@
         </is>
       </c>
       <c r="AB313" t="n">
-        <v>-1309036367</v>
+        <v>-598911396</v>
       </c>
       <c r="AC313" t="inlineStr">
         <is>
@@ -58109,7 +58109,7 @@
         </is>
       </c>
       <c r="AB314" t="n">
-        <v>-5452610</v>
+        <v>15419150</v>
       </c>
       <c r="AC314" t="inlineStr">
         <is>
@@ -58298,7 +58298,7 @@
         </is>
       </c>
       <c r="AB315" t="n">
-        <v>-1759317</v>
+        <v>18890300</v>
       </c>
       <c r="AC315" t="inlineStr">
         <is>
@@ -58487,7 +58487,7 @@
         </is>
       </c>
       <c r="AB316" t="n">
-        <v>-3287211</v>
+        <v>25203471</v>
       </c>
       <c r="AC316" t="inlineStr">
         <is>
@@ -58676,7 +58676,7 @@
         </is>
       </c>
       <c r="AB317" t="n">
-        <v>1401502</v>
+        <v>19621546</v>
       </c>
       <c r="AC317" t="inlineStr">
         <is>
@@ -58865,7 +58865,7 @@
         </is>
       </c>
       <c r="AB318" t="n">
-        <v>16440235</v>
+        <v>25517861</v>
       </c>
       <c r="AC318" t="inlineStr">
         <is>
@@ -59054,7 +59054,7 @@
         </is>
       </c>
       <c r="AB319" t="n">
-        <v>25145658</v>
+        <v>28422205</v>
       </c>
       <c r="AC319" t="inlineStr">
         <is>
@@ -59243,7 +59243,7 @@
         </is>
       </c>
       <c r="AB320" t="n">
-        <v>19470258</v>
+        <v>17408418</v>
       </c>
       <c r="AC320" t="inlineStr">
         <is>
@@ -59432,7 +59432,7 @@
         </is>
       </c>
       <c r="AB321" t="n">
-        <v>4209382</v>
+        <v>774603</v>
       </c>
       <c r="AC321" t="inlineStr">
         <is>
@@ -59613,7 +59613,7 @@
         </is>
       </c>
       <c r="AB322" t="n">
-        <v>3345024</v>
+        <v>-5049942</v>
       </c>
       <c r="AC322" t="inlineStr">
         <is>
@@ -59794,7 +59794,7 @@
         </is>
       </c>
       <c r="AB323" t="n">
-        <v>-1250214</v>
+        <v>-11439087</v>
       </c>
       <c r="AC323" t="inlineStr">
         <is>
@@ -59975,7 +59975,7 @@
         </is>
       </c>
       <c r="AB324" t="n">
-        <v>4868244</v>
+        <v>-3817573</v>
       </c>
       <c r="AC324" t="inlineStr">
         <is>
@@ -60156,7 +60156,7 @@
         </is>
       </c>
       <c r="AB325" t="n">
-        <v>-68477</v>
+        <v>-18671216</v>
       </c>
       <c r="AC325" t="inlineStr">
         <is>
@@ -60345,7 +60345,7 @@
         </is>
       </c>
       <c r="AB326" t="n">
-        <v>185881674</v>
+        <v>620225417</v>
       </c>
       <c r="AC326" t="inlineStr">
         <is>
@@ -60534,7 +60534,7 @@
         </is>
       </c>
       <c r="AB327" t="n">
-        <v>2305960</v>
+        <v>522870424</v>
       </c>
       <c r="AC327" t="inlineStr">
         <is>
@@ -60723,7 +60723,7 @@
         </is>
       </c>
       <c r="AB328" t="n">
-        <v>6771393</v>
+        <v>452296872</v>
       </c>
       <c r="AC328" t="inlineStr">
         <is>
@@ -60904,7 +60904,7 @@
         </is>
       </c>
       <c r="AB329" t="n">
-        <v>-112465690</v>
+        <v>448753047</v>
       </c>
       <c r="AC329" t="inlineStr">
         <is>
@@ -61085,7 +61085,7 @@
         </is>
       </c>
       <c r="AB330" t="n">
-        <v>379225652</v>
+        <v>536831246</v>
       </c>
       <c r="AC330" t="inlineStr">
         <is>
@@ -61266,7 +61266,7 @@
         </is>
       </c>
       <c r="AB331" t="n">
-        <v>433093279</v>
+        <v>481519081</v>
       </c>
       <c r="AC331" t="inlineStr">
         <is>
@@ -61447,7 +61447,7 @@
         </is>
       </c>
       <c r="AB332" t="n">
-        <v>546809433</v>
+        <v>524601658</v>
       </c>
       <c r="AC332" t="inlineStr">
         <is>
@@ -61628,7 +61628,7 @@
         </is>
       </c>
       <c r="AB333" t="n">
-        <v>141338812</v>
+        <v>123113851</v>
       </c>
       <c r="AC333" t="inlineStr">
         <is>
@@ -61809,7 +61809,7 @@
         </is>
       </c>
       <c r="AB334" t="n">
-        <v>12432200</v>
+        <v>55685384</v>
       </c>
       <c r="AC334" t="inlineStr">
         <is>
@@ -61990,7 +61990,7 @@
         </is>
       </c>
       <c r="AB335" t="n">
-        <v>14409304</v>
+        <v>-5974256</v>
       </c>
       <c r="AC335" t="inlineStr">
         <is>
@@ -62171,7 +62171,7 @@
         </is>
       </c>
       <c r="AB336" t="n">
-        <v>16266782</v>
+        <v>14397288</v>
       </c>
       <c r="AC336" t="inlineStr">
         <is>
@@ -62352,7 +62352,7 @@
         </is>
       </c>
       <c r="AB337" t="n">
-        <v>35993602</v>
+        <v>139277207</v>
       </c>
       <c r="AC337" t="inlineStr">
         <is>
@@ -62541,7 +62541,7 @@
         </is>
       </c>
       <c r="AB338" t="n">
-        <v>2356351425</v>
+        <v>2399247951</v>
       </c>
       <c r="AC338" t="inlineStr">
         <is>
@@ -62730,7 +62730,7 @@
         </is>
       </c>
       <c r="AB339" t="n">
-        <v>1509413393</v>
+        <v>1336713482</v>
       </c>
       <c r="AC339" t="inlineStr">
         <is>
@@ -62919,7 +62919,7 @@
         </is>
       </c>
       <c r="AB340" t="n">
-        <v>360892509</v>
+        <v>61684033</v>
       </c>
       <c r="AC340" t="inlineStr">
         <is>
@@ -63108,7 +63108,7 @@
         </is>
       </c>
       <c r="AB341" t="n">
-        <v>543087764</v>
+        <v>7888108</v>
       </c>
       <c r="AC341" t="inlineStr">
         <is>
@@ -63297,7 +63297,7 @@
         </is>
       </c>
       <c r="AB342" t="n">
-        <v>-792518475</v>
+        <v>-62425811</v>
       </c>
       <c r="AC342" t="inlineStr">
         <is>
@@ -63486,7 +63486,7 @@
         </is>
       </c>
       <c r="AB343" t="n">
-        <v>216863528</v>
+        <v>56415347</v>
       </c>
       <c r="AC343" t="inlineStr">
         <is>
@@ -63675,7 +63675,7 @@
         </is>
       </c>
       <c r="AB344" t="n">
-        <v>-500191238</v>
+        <v>-1012966314</v>
       </c>
       <c r="AC344" t="inlineStr">
         <is>
@@ -63864,7 +63864,7 @@
         </is>
       </c>
       <c r="AB345" t="n">
-        <v>619818564</v>
+        <v>348621569</v>
       </c>
       <c r="AC345" t="inlineStr">
         <is>
@@ -64045,7 +64045,7 @@
         </is>
       </c>
       <c r="AB346" t="n">
-        <v>-516072004</v>
+        <v>-179693112</v>
       </c>
       <c r="AC346" t="inlineStr">
         <is>
@@ -64226,7 +64226,7 @@
         </is>
       </c>
       <c r="AB347" t="n">
-        <v>-35008418</v>
+        <v>-328269969</v>
       </c>
       <c r="AC347" t="inlineStr">
         <is>
@@ -64407,7 +64407,7 @@
         </is>
       </c>
       <c r="AB348" t="n">
-        <v>110274100</v>
+        <v>-49834088</v>
       </c>
       <c r="AC348" t="inlineStr">
         <is>
@@ -64588,7 +64588,7 @@
         </is>
       </c>
       <c r="AB349" t="n">
-        <v>355623823</v>
+        <v>1390964678</v>
       </c>
       <c r="AC349" t="inlineStr">
         <is>
@@ -64777,7 +64777,7 @@
         </is>
       </c>
       <c r="AB350" t="n">
-        <v>265414791</v>
+        <v>308320453</v>
       </c>
       <c r="AC350" t="inlineStr">
         <is>
@@ -64966,7 +64966,7 @@
         </is>
       </c>
       <c r="AB351" t="n">
-        <v>75687653</v>
+        <v>199644152</v>
       </c>
       <c r="AC351" t="inlineStr">
         <is>
@@ -65155,7 +65155,7 @@
         </is>
       </c>
       <c r="AB352" t="n">
-        <v>-31174751</v>
+        <v>65108213</v>
       </c>
       <c r="AC352" t="inlineStr">
         <is>
@@ -65344,7 +65344,7 @@
         </is>
       </c>
       <c r="AB353" t="n">
-        <v>-32710151</v>
+        <v>87474124</v>
       </c>
       <c r="AC353" t="inlineStr">
         <is>
@@ -65533,7 +65533,7 @@
         </is>
       </c>
       <c r="AB354" t="n">
-        <v>-81270528</v>
+        <v>167646693</v>
       </c>
       <c r="AC354" t="inlineStr">
         <is>
@@ -65722,7 +65722,7 @@
         </is>
       </c>
       <c r="AB355" t="n">
-        <v>136614230</v>
+        <v>165727642</v>
       </c>
       <c r="AC355" t="inlineStr">
         <is>
@@ -65911,7 +65911,7 @@
         </is>
       </c>
       <c r="AB356" t="n">
-        <v>75615813</v>
+        <v>82065793</v>
       </c>
       <c r="AC356" t="inlineStr">
         <is>
@@ -66100,7 +66100,7 @@
         </is>
       </c>
       <c r="AB357" t="n">
-        <v>205227027</v>
+        <v>244034961</v>
       </c>
       <c r="AC357" t="inlineStr">
         <is>
@@ -66281,7 +66281,7 @@
         </is>
       </c>
       <c r="AB358" t="n">
-        <v>-40331266</v>
+        <v>122762920</v>
       </c>
       <c r="AC358" t="inlineStr">
         <is>
@@ -66462,7 +66462,7 @@
         </is>
       </c>
       <c r="AB359" t="n">
-        <v>44568462</v>
+        <v>79071796</v>
       </c>
       <c r="AC359" t="inlineStr">
         <is>
@@ -66643,7 +66643,7 @@
         </is>
       </c>
       <c r="AB360" t="n">
-        <v>43690194</v>
+        <v>145667947</v>
       </c>
       <c r="AC360" t="inlineStr">
         <is>
@@ -66824,7 +66824,7 @@
         </is>
       </c>
       <c r="AB361" t="n">
-        <v>69444678</v>
+        <v>386777623</v>
       </c>
       <c r="AC361" t="inlineStr">
         <is>
@@ -67005,7 +67005,7 @@
         </is>
       </c>
       <c r="AB362" t="n">
-        <v>18188488866</v>
+        <v>21402356496</v>
       </c>
       <c r="AC362" t="inlineStr">
         <is>
@@ -67186,7 +67186,7 @@
         </is>
       </c>
       <c r="AB363" t="n">
-        <v>6516504993</v>
+        <v>9985586218</v>
       </c>
       <c r="AC363" t="inlineStr">
         <is>
@@ -67367,7 +67367,7 @@
         </is>
       </c>
       <c r="AB364" t="n">
-        <v>1498657054</v>
+        <v>4732689269</v>
       </c>
       <c r="AC364" t="inlineStr">
         <is>
@@ -67548,7 +67548,7 @@
         </is>
       </c>
       <c r="AB365" t="n">
-        <v>1096197325</v>
+        <v>977114070</v>
       </c>
       <c r="AC365" t="inlineStr">
         <is>
@@ -67729,7 +67729,7 @@
         </is>
       </c>
       <c r="AB366" t="n">
-        <v>-2438387267</v>
+        <v>2447835870</v>
       </c>
       <c r="AC366" t="inlineStr">
         <is>
@@ -67910,7 +67910,7 @@
         </is>
       </c>
       <c r="AB367" t="n">
-        <v>2185454238</v>
+        <v>1543870578</v>
       </c>
       <c r="AC367" t="inlineStr">
         <is>
@@ -68091,7 +68091,7 @@
         </is>
       </c>
       <c r="AB368" t="n">
-        <v>2117670305</v>
+        <v>-4460832348</v>
       </c>
       <c r="AC368" t="inlineStr">
         <is>
@@ -68272,7 +68272,7 @@
         </is>
       </c>
       <c r="AB369" t="n">
-        <v>5907468492</v>
+        <v>1685085014</v>
       </c>
       <c r="AC369" t="inlineStr">
         <is>
@@ -68453,7 +68453,7 @@
         </is>
       </c>
       <c r="AB370" t="n">
-        <v>1048577977</v>
+        <v>-4180228879</v>
       </c>
       <c r="AC370" t="inlineStr">
         <is>
@@ -68634,7 +68634,7 @@
         </is>
       </c>
       <c r="AB371" t="n">
-        <v>-2236753560</v>
+        <v>-8736623077</v>
       </c>
       <c r="AC371" t="inlineStr">
         <is>
@@ -68815,7 +68815,7 @@
         </is>
       </c>
       <c r="AB372" t="n">
-        <v>-1021245355</v>
+        <v>-5001740506</v>
       </c>
       <c r="AC372" t="inlineStr">
         <is>
@@ -68996,7 +68996,7 @@
         </is>
       </c>
       <c r="AB373" t="n">
-        <v>-1690161637</v>
+        <v>13210488729</v>
       </c>
       <c r="AC373" t="inlineStr">
         <is>
@@ -69177,7 +69177,7 @@
         </is>
       </c>
       <c r="AB374" t="n">
-        <v>-22119222</v>
+        <v>-39601610</v>
       </c>
       <c r="AC374" t="inlineStr">
         <is>
@@ -69356,7 +69356,7 @@
         </is>
       </c>
       <c r="AB375" t="n">
-        <v>-16119244</v>
+        <v>11506651</v>
       </c>
       <c r="AC375" t="inlineStr">
         <is>
@@ -69535,7 +69535,7 @@
         </is>
       </c>
       <c r="AB376" t="n">
-        <v>-67436543</v>
+        <v>12288243</v>
       </c>
       <c r="AC376" t="inlineStr">
         <is>
@@ -69714,7 +69714,7 @@
         </is>
       </c>
       <c r="AB377" t="n">
-        <v>-8199209</v>
+        <v>14075637</v>
       </c>
       <c r="AC377" t="inlineStr">
         <is>
@@ -69893,7 +69893,7 @@
         </is>
       </c>
       <c r="AB378" t="n">
-        <v>-9128139</v>
+        <v>61764243</v>
       </c>
       <c r="AC378" t="inlineStr">
         <is>
@@ -70072,7 +70072,7 @@
         </is>
       </c>
       <c r="AB379" t="n">
-        <v>42430685</v>
+        <v>59125578</v>
       </c>
       <c r="AC379" t="inlineStr">
         <is>
@@ -70251,7 +70251,7 @@
         </is>
       </c>
       <c r="AB380" t="n">
-        <v>-9283179</v>
+        <v>-19704495</v>
       </c>
       <c r="AC380" t="inlineStr">
         <is>
@@ -70430,7 +70430,7 @@
         </is>
       </c>
       <c r="AB381" t="n">
-        <v>36754034</v>
+        <v>-18491003</v>
       </c>
       <c r="AC381" t="inlineStr">
         <is>
@@ -70609,7 +70609,7 @@
         </is>
       </c>
       <c r="AB382" t="n">
-        <v>37294101</v>
+        <v>-118415398</v>
       </c>
       <c r="AC382" t="inlineStr">
         <is>
@@ -70788,7 +70788,7 @@
         </is>
       </c>
       <c r="AB383" t="n">
-        <v>31558025</v>
+        <v>-365420</v>
       </c>
       <c r="AC383" t="inlineStr">
         <is>
@@ -70967,7 +70967,7 @@
         </is>
       </c>
       <c r="AB384" t="n">
-        <v>34138348</v>
+        <v>44818152</v>
       </c>
       <c r="AC384" t="inlineStr">
         <is>
@@ -71146,7 +71146,7 @@
         </is>
       </c>
       <c r="AB385" t="n">
-        <v>-20599208</v>
+        <v>-81259176</v>
       </c>
       <c r="AC385" t="inlineStr">
         <is>

--- a/Result/checksun/航運業.xlsx
+++ b/Result/checksun/航運業.xlsx
@@ -722,20 +722,20 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>18</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
-        <v>37</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4</v>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -944,17 +944,17 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-17</v>
+        <v>-7</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -1160,16 +1160,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>24</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
         <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>50</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-9</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -1382,17 +1382,17 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-7</v>
+        <v>-14</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -1601,13 +1601,13 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -1820,17 +1820,17 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>-1</v>
+        <v>-11</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -2036,16 +2036,16 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C8" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -2258,17 +2258,17 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -2474,20 +2474,20 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -3127,20 +3127,20 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="C13" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>7</v>
+        <v>-10</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -3346,16 +3346,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C14" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -3565,16 +3565,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B15" t="n">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C15" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D15" t="n">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -3784,20 +3784,20 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B16" t="n">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>價漲量增</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -4003,16 +4003,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B17" t="n">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -4222,20 +4222,20 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B18" t="n">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>-13</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量縮</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -4441,20 +4441,20 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="B19" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C19" t="n">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -4660,20 +4660,20 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -4879,20 +4879,20 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -5532,13 +5532,13 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="B24" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C24" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>3</v>
@@ -5751,10 +5751,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="B25" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C25" t="n">
         <v>-2</v>
@@ -5970,16 +5970,16 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="B26" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C26" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="D26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -6189,16 +6189,16 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C27" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D27" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6411,13 +6411,13 @@
         <v>2</v>
       </c>
       <c r="B28" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D28" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -6627,20 +6627,20 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B29" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>-1</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -6846,20 +6846,20 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B30" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>9</v>
+        <v>-2</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -7065,16 +7065,16 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -7284,20 +7284,20 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -7940,13 +7940,13 @@
         <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
         <v>-1</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -8156,16 +8156,16 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -8375,16 +8375,16 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -8594,16 +8594,16 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C38" t="n">
         <v>-1</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -8813,20 +8813,20 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B39" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>-11</v>
+        <v>-2</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -9032,16 +9032,16 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B40" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
         <v>1</v>
-      </c>
-      <c r="D40" t="n">
-        <v>-4</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -9251,20 +9251,20 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B41" t="n">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C41" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>40</v>
+        <v>-13</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -9473,13 +9473,13 @@
         <v>0</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -9689,20 +9689,20 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -10342,20 +10342,20 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="B46" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
@@ -10562,7 +10562,7 @@
         <v>-3</v>
       </c>
       <c r="B47" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -10779,10 +10779,10 @@
         <v>-3</v>
       </c>
       <c r="B48" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C48" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
         <v>1</v>
@@ -10993,13 +10993,13 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="B49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -11213,13 +11213,13 @@
         <v>0</v>
       </c>
       <c r="B50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D50" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -11427,16 +11427,16 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B51" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C51" t="n">
         <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -11644,20 +11644,20 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B52" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C52" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -11864,17 +11864,17 @@
         <v>0</v>
       </c>
       <c r="B53" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -12078,20 +12078,20 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -12725,20 +12725,20 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B57" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>6</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -12951,10 +12951,10 @@
         <v>0</v>
       </c>
       <c r="B58" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C58" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
         <v>-2</v>
@@ -13171,10 +13171,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B59" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -13394,13 +13394,13 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B60" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C60" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D60" t="n">
         <v>-2</v>
@@ -13617,16 +13617,16 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B61" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D61" t="n">
         <v>1</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -13840,20 +13840,20 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B62" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -14063,20 +14063,20 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B63" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
-        <v>16</v>
+        <v>-1</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -14289,17 +14289,17 @@
         <v>0</v>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -14509,20 +14509,20 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -15182,20 +15182,20 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="B68" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>-15</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量縮</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -15413,16 +15413,16 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B69" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C69" t="n">
         <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -15640,16 +15640,16 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B70" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C70" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -15862,13 +15862,13 @@
         <v>8</v>
       </c>
       <c r="B71" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C71" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D71" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -16078,16 +16078,16 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="B72" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D72" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -16297,13 +16297,13 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B73" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>1</v>
@@ -16516,20 +16516,20 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="B74" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C74" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D74" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
@@ -16735,16 +16735,16 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -16954,20 +16954,20 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
@@ -18039,7 +18039,7 @@
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D81" t="n">
         <v>0</v>
@@ -18244,13 +18244,13 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B82" t="n">
         <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
@@ -19959,13 +19959,13 @@
         <v>0</v>
       </c>
       <c r="B90" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C90" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -20175,10 +20175,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B91" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -20394,13 +20394,13 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C92" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
@@ -20613,16 +20613,16 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C93" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D93" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -20835,10 +20835,10 @@
         <v>1</v>
       </c>
       <c r="B94" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C94" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
@@ -21051,20 +21051,20 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B95" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>-1</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
@@ -21270,20 +21270,20 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B96" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C96" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
@@ -21489,13 +21489,13 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
@@ -21708,20 +21708,20 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
@@ -22361,13 +22361,13 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B101" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D101" t="n">
         <v>1</v>
@@ -22580,16 +22580,16 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
+        <v>0</v>
+      </c>
+      <c r="B102" t="n">
+        <v>10</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0</v>
+      </c>
+      <c r="D102" t="n">
         <v>-2</v>
-      </c>
-      <c r="B102" t="n">
-        <v>20</v>
-      </c>
-      <c r="C102" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D102" t="n">
-        <v>-1</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -22799,16 +22799,16 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B103" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C103" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D103" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -23018,10 +23018,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B104" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -23237,13 +23237,13 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B105" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C105" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D105" t="n">
         <v>1</v>
@@ -23456,16 +23456,16 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B106" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
       </c>
       <c r="D106" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -23675,20 +23675,20 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B107" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C107" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F107" t="inlineStr"/>
@@ -23897,17 +23897,17 @@
         <v>0</v>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F108" t="inlineStr"/>
@@ -24113,20 +24113,20 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F109" t="inlineStr"/>
@@ -24769,17 +24769,17 @@
         <v>0</v>
       </c>
       <c r="B112" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C112" t="n">
         <v>0</v>
       </c>
       <c r="D112" t="n">
-        <v>-3</v>
+        <v>5</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F112" t="inlineStr"/>
@@ -24988,13 +24988,13 @@
         <v>0</v>
       </c>
       <c r="B113" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>1</v>
+        <v>-6</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -25207,13 +25207,13 @@
         <v>0</v>
       </c>
       <c r="B114" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C114" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -25423,16 +25423,16 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B115" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>-8</v>
+        <v>-1</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -25645,17 +25645,17 @@
         <v>0</v>
       </c>
       <c r="B116" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D116" t="n">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F116" t="inlineStr"/>
@@ -25861,16 +25861,16 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B117" t="n">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D117" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -26083,17 +26083,17 @@
         <v>0</v>
       </c>
       <c r="B118" t="n">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
       </c>
       <c r="D118" t="n">
-        <v>43</v>
+        <v>-9</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F118" t="inlineStr"/>
@@ -26302,13 +26302,13 @@
         <v>0</v>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -26518,20 +26518,20 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D120" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F120" t="inlineStr"/>
@@ -27171,10 +27171,10 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C123" t="n">
         <v>1</v>
@@ -27392,13 +27392,13 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D124" t="n">
         <v>-1</v>
@@ -27612,10 +27612,10 @@
         <v>1</v>
       </c>
       <c r="B125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C125" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D125" t="n">
         <v>0</v>
@@ -27826,16 +27826,16 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C126" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D126" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -28043,13 +28043,13 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B127" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C127" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D127" t="n">
         <v>0</v>
@@ -28260,20 +28260,20 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="B128" t="n">
+        <v>1</v>
+      </c>
+      <c r="C128" t="n">
         <v>3</v>
       </c>
-      <c r="C128" t="n">
-        <v>2</v>
-      </c>
       <c r="D128" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F128" t="inlineStr"/>
@@ -28477,20 +28477,20 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="B129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C129" t="n">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="D129" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>價跌量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F129" t="inlineStr"/>
@@ -28694,20 +28694,20 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F130" t="inlineStr"/>
@@ -28911,20 +28911,20 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="D131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F131" t="inlineStr"/>
@@ -29558,20 +29558,20 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="B134" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D134" t="n">
         <v>0</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F134" t="inlineStr"/>
@@ -29780,13 +29780,13 @@
         <v>-2</v>
       </c>
       <c r="B135" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C135" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D135" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -29996,16 +29996,16 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="B136" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C136" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D136" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -30215,20 +30215,20 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B137" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C137" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="D137" t="n">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量-</t>
         </is>
       </c>
       <c r="F137" t="inlineStr"/>
@@ -30434,16 +30434,16 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B138" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C138" t="n">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="D138" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -30653,16 +30653,16 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B139" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -30872,20 +30872,20 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B140" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D140" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F140" t="inlineStr"/>
@@ -31091,20 +31091,20 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B141" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D141" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F141" t="inlineStr"/>
@@ -31310,20 +31310,20 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="B142" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D142" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F142" t="inlineStr"/>
@@ -31963,20 +31963,20 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B145" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C145" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D145" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F145" t="inlineStr"/>
@@ -32185,7 +32185,7 @@
         <v>-1</v>
       </c>
       <c r="B146" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C146" t="n">
         <v>1</v>
@@ -32404,13 +32404,13 @@
         <v>-2</v>
       </c>
       <c r="B147" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C147" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D147" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -32620,16 +32620,16 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="B148" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C148" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D148" t="n">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -32842,17 +32842,17 @@
         <v>0</v>
       </c>
       <c r="B149" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C149" t="n">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="D149" t="n">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F149" t="inlineStr"/>
@@ -33058,16 +33058,16 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="B150" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C150" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D150" t="n">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -33277,20 +33277,20 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="B151" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C151" t="n">
-        <v>-7</v>
+        <v>3</v>
       </c>
       <c r="D151" t="n">
-        <v>30</v>
+        <v>-6</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>價跌量增</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F151" t="inlineStr"/>
@@ -33496,20 +33496,20 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F152" t="inlineStr"/>
@@ -33715,20 +33715,20 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="B153" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="D153" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F153" t="inlineStr"/>
@@ -34368,16 +34368,16 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B156" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D156" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -34590,13 +34590,13 @@
         <v>0</v>
       </c>
       <c r="B157" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D157" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -34806,16 +34806,16 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B158" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C158" t="n">
         <v>-1</v>
       </c>
       <c r="D158" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -35025,16 +35025,16 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B159" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D159" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -35247,13 +35247,13 @@
         <v>0</v>
       </c>
       <c r="B160" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -35463,16 +35463,16 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B161" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -35682,20 +35682,20 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B162" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C162" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D162" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F162" t="inlineStr"/>
@@ -35904,17 +35904,17 @@
         <v>0</v>
       </c>
       <c r="B163" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D163" t="n">
         <v>0</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F163" t="inlineStr"/>
@@ -36120,20 +36120,20 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D164" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F164" t="inlineStr"/>
@@ -36773,16 +36773,16 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
+        <v>0</v>
+      </c>
+      <c r="B167" t="n">
+        <v>4</v>
+      </c>
+      <c r="C167" t="n">
+        <v>1</v>
+      </c>
+      <c r="D167" t="n">
         <v>-1</v>
-      </c>
-      <c r="B167" t="n">
-        <v>11</v>
-      </c>
-      <c r="C167" t="n">
-        <v>0</v>
-      </c>
-      <c r="D167" t="n">
-        <v>0</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -36995,13 +36995,13 @@
         <v>-1</v>
       </c>
       <c r="B168" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D168" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -37211,16 +37211,16 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="B169" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D169" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -37441,13 +37441,13 @@
         <v>-2</v>
       </c>
       <c r="B170" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C170" t="n">
         <v>-2</v>
       </c>
       <c r="D170" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -37668,13 +37668,13 @@
         <v>0</v>
       </c>
       <c r="B171" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D171" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -37892,16 +37892,16 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B172" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
       </c>
       <c r="D172" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -38119,20 +38119,20 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
+        <v>0</v>
+      </c>
+      <c r="B173" t="n">
+        <v>15</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1</v>
+      </c>
+      <c r="D173" t="n">
         <v>-1</v>
       </c>
-      <c r="B173" t="n">
-        <v>27</v>
-      </c>
-      <c r="C173" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D173" t="n">
-        <v>27</v>
-      </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F173" t="inlineStr"/>
@@ -38346,16 +38346,16 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B174" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
       </c>
       <c r="D174" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -38573,20 +38573,20 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B175" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D175" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F175" t="inlineStr"/>
@@ -39250,13 +39250,13 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B178" t="n">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="C178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D178" t="n">
         <v>-3</v>
@@ -39472,17 +39472,17 @@
         <v>0</v>
       </c>
       <c r="B179" t="n">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
       </c>
       <c r="D179" t="n">
-        <v>3</v>
+        <v>-3</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F179" t="inlineStr"/>
@@ -39691,13 +39691,13 @@
         <v>0</v>
       </c>
       <c r="B180" t="n">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="C180" t="n">
         <v>1</v>
       </c>
       <c r="D180" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
@@ -39910,17 +39910,17 @@
         <v>-1</v>
       </c>
       <c r="B181" t="n">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C181" t="n">
         <v>-1</v>
       </c>
       <c r="D181" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F181" t="inlineStr"/>
@@ -40129,17 +40129,17 @@
         <v>0</v>
       </c>
       <c r="B182" t="n">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
       </c>
       <c r="D182" t="n">
-        <v>-11</v>
+        <v>2</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F182" t="inlineStr"/>
@@ -40348,17 +40348,17 @@
         <v>0</v>
       </c>
       <c r="B183" t="n">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
       </c>
       <c r="D183" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F183" t="inlineStr"/>
@@ -40567,17 +40567,17 @@
         <v>0</v>
       </c>
       <c r="B184" t="n">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="C184" t="n">
         <v>0</v>
       </c>
       <c r="D184" t="n">
-        <v>69</v>
+        <v>-18</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F184" t="inlineStr"/>
@@ -40786,7 +40786,7 @@
         <v>0</v>
       </c>
       <c r="B185" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -41005,17 +41005,17 @@
         <v>0</v>
       </c>
       <c r="B186" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
       </c>
       <c r="D186" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F186" t="inlineStr"/>
@@ -41655,16 +41655,16 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B189" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D189" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -41877,13 +41877,13 @@
         <v>-2</v>
       </c>
       <c r="B190" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D190" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
@@ -42093,16 +42093,16 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="B191" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
       </c>
       <c r="D191" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -42312,16 +42312,16 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="B192" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C192" t="n">
         <v>-1</v>
       </c>
       <c r="D192" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -42531,20 +42531,20 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="B193" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C193" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D193" t="n">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F193" t="inlineStr"/>
@@ -42750,20 +42750,20 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="B194" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C194" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="D194" t="n">
-        <v>-14</v>
+        <v>-6</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F194" t="inlineStr"/>
@@ -42969,20 +42969,20 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="B195" t="n">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C195" t="n">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="D195" t="n">
-        <v>33</v>
+        <v>-3</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>價跌量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F195" t="inlineStr"/>
@@ -43196,20 +43196,20 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="B196" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C196" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D196" t="n">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F196" t="inlineStr"/>
@@ -43423,20 +43423,20 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B197" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D197" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F197" t="inlineStr"/>
@@ -44100,16 +44100,16 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B200" t="n">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="C200" t="n">
         <v>1</v>
       </c>
       <c r="D200" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
@@ -44331,16 +44331,16 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B201" t="n">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="C201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D201" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -44558,16 +44558,16 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B202" t="n">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="C202" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D202" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -44785,16 +44785,16 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B203" t="n">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="C203" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="D203" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -45004,16 +45004,16 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B204" t="n">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="C204" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="D204" t="n">
-        <v>-10</v>
+        <v>-4</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
@@ -45223,20 +45223,20 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B205" t="n">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="C205" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D205" t="n">
-        <v>4</v>
+        <v>-3</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F205" t="inlineStr"/>
@@ -45442,20 +45442,20 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B206" t="n">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="C206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D206" t="n">
-        <v>103</v>
+        <v>-9</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F206" t="inlineStr"/>
@@ -45664,17 +45664,17 @@
         <v>0</v>
       </c>
       <c r="B207" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="C207" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D207" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F207" t="inlineStr"/>
@@ -45880,20 +45880,20 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B208" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="C208" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D208" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F208" t="inlineStr"/>
@@ -46536,13 +46536,13 @@
         <v>1</v>
       </c>
       <c r="B211" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C211" t="n">
         <v>1</v>
       </c>
       <c r="D211" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -46755,13 +46755,13 @@
         <v>0</v>
       </c>
       <c r="B212" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
       </c>
       <c r="D212" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -46974,13 +46974,13 @@
         <v>0</v>
       </c>
       <c r="B213" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
       </c>
       <c r="D213" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -47193,13 +47193,13 @@
         <v>0</v>
       </c>
       <c r="B214" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C214" t="n">
         <v>0</v>
       </c>
       <c r="D214" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
@@ -47412,13 +47412,13 @@
         <v>0</v>
       </c>
       <c r="B215" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C215" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D215" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -47628,16 +47628,16 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="B216" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C216" t="n">
         <v>1</v>
       </c>
       <c r="D216" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -47847,20 +47847,20 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="B217" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C217" t="n">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="D217" t="n">
-        <v>25</v>
+        <v>-2</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F217" t="inlineStr"/>
@@ -48066,16 +48066,16 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B218" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D218" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -48285,20 +48285,20 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="B219" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C219" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D219" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F219" t="inlineStr"/>
@@ -48938,10 +48938,10 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B222" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C222" t="n">
         <v>3</v>
@@ -49157,16 +49157,16 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="B223" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D223" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
@@ -49376,20 +49376,20 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="B224" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C224" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D224" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F224" t="inlineStr"/>
@@ -49598,17 +49598,17 @@
         <v>-6</v>
       </c>
       <c r="B225" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C225" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="D225" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F225" t="inlineStr"/>
@@ -49814,16 +49814,16 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="B226" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C226" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D226" t="n">
         <v>-2</v>
-      </c>
-      <c r="D226" t="n">
-        <v>-3</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
@@ -50033,13 +50033,13 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="B227" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D227" t="n">
         <v>0</v>
@@ -50252,20 +50252,20 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="B228" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C228" t="n">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="D228" t="n">
-        <v>33</v>
+        <v>-5</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>價跌量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F228" t="inlineStr"/>
@@ -50471,20 +50471,20 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B229" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C229" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D229" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F229" t="inlineStr"/>
@@ -50690,20 +50690,20 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="B230" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C230" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D230" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F230" t="inlineStr"/>
@@ -51343,20 +51343,20 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B233" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C233" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D233" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F233" t="inlineStr"/>
@@ -51565,10 +51565,10 @@
         <v>-1</v>
       </c>
       <c r="B234" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D234" t="n">
         <v>0</v>
@@ -51781,13 +51781,13 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="B235" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C235" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D235" t="n">
         <v>1</v>
@@ -52000,16 +52000,16 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
+        <v>-3</v>
+      </c>
+      <c r="B236" t="n">
+        <v>3</v>
+      </c>
+      <c r="C236" t="n">
         <v>-2</v>
       </c>
-      <c r="B236" t="n">
-        <v>5</v>
-      </c>
-      <c r="C236" t="n">
-        <v>-1</v>
-      </c>
       <c r="D236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
@@ -52222,13 +52222,13 @@
         <v>-1</v>
       </c>
       <c r="B237" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C237" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D237" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
@@ -52438,10 +52438,10 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B238" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C238" t="n">
         <v>2</v>
@@ -52657,20 +52657,20 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="B239" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C239" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="D239" t="n">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F239" t="inlineStr"/>
@@ -52879,17 +52879,17 @@
         <v>0</v>
       </c>
       <c r="B240" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C240" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D240" t="n">
         <v>0</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F240" t="inlineStr"/>
@@ -53095,20 +53095,20 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="B241" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C241" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D241" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F241" t="inlineStr"/>
@@ -53748,20 +53748,20 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
+        <v>1</v>
+      </c>
+      <c r="B244" t="n">
+        <v>6</v>
+      </c>
+      <c r="C244" t="n">
+        <v>4</v>
+      </c>
+      <c r="D244" t="n">
         <v>-3</v>
       </c>
-      <c r="B244" t="n">
-        <v>14</v>
-      </c>
-      <c r="C244" t="n">
-        <v>0</v>
-      </c>
-      <c r="D244" t="n">
-        <v>0</v>
-      </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F244" t="inlineStr"/>
@@ -53970,13 +53970,13 @@
         <v>-3</v>
       </c>
       <c r="B245" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C245" t="n">
         <v>1</v>
       </c>
       <c r="D245" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
@@ -54189,7 +54189,7 @@
         <v>-4</v>
       </c>
       <c r="B246" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C246" t="n">
         <v>-1</v>
@@ -54408,10 +54408,10 @@
         <v>-3</v>
       </c>
       <c r="B247" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C247" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D247" t="n">
         <v>2</v>
@@ -54624,16 +54624,16 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="B248" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C248" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
@@ -54843,20 +54843,20 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="B249" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C249" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D249" t="n">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F249" t="inlineStr"/>
@@ -55062,20 +55062,20 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="B250" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C250" t="n">
-        <v>-7</v>
+        <v>2</v>
       </c>
       <c r="D250" t="n">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>價跌量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F250" t="inlineStr"/>
@@ -55281,20 +55281,20 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B251" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C251" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D251" t="n">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F251" t="inlineStr"/>
@@ -55500,20 +55500,20 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="B252" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C252" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="D252" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F252" t="inlineStr"/>
@@ -56172,13 +56172,13 @@
         <v>0</v>
       </c>
       <c r="B255" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
       </c>
       <c r="D255" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
@@ -56389,13 +56389,13 @@
         <v>0</v>
       </c>
       <c r="B256" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
       </c>
       <c r="D256" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
@@ -56606,13 +56606,13 @@
         <v>0</v>
       </c>
       <c r="B257" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C257" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D257" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -56820,13 +56820,13 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B258" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C258" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D258" t="n">
         <v>4</v>
@@ -57040,17 +57040,17 @@
         <v>1</v>
       </c>
       <c r="B259" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C259" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="D259" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F259" t="inlineStr"/>
@@ -57254,20 +57254,20 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B260" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C260" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D260" t="n">
         <v>0</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F260" t="inlineStr"/>
@@ -57471,20 +57471,20 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B261" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C261" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D261" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F261" t="inlineStr"/>
@@ -57691,17 +57691,17 @@
         <v>0</v>
       </c>
       <c r="B262" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C262" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D262" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F262" t="inlineStr"/>
@@ -57905,20 +57905,20 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="B263" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C263" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D263" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F263" t="inlineStr"/>
@@ -58555,13 +58555,13 @@
         <v>1</v>
       </c>
       <c r="B266" t="n">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="C266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D266" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
@@ -58771,13 +58771,13 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B267" t="n">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="C267" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D267" t="n">
         <v>3</v>
@@ -58990,16 +58990,16 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B268" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
       </c>
       <c r="D268" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
@@ -59209,16 +59209,16 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B269" t="n">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="C269" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
@@ -59428,20 +59428,20 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B270" t="n">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="C270" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D270" t="n">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F270" t="inlineStr"/>
@@ -59647,16 +59647,16 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B271" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D271" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
@@ -59866,20 +59866,20 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B272" t="n">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="C272" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D272" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F272" t="inlineStr"/>
@@ -60085,20 +60085,20 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B273" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D273" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F273" t="inlineStr"/>
@@ -60304,20 +60304,20 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B274" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C274" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D274" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F274" t="inlineStr"/>
@@ -60957,20 +60957,20 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B277" t="n">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="C277" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D277" t="n">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F277" t="inlineStr"/>
@@ -61179,17 +61179,17 @@
         <v>0</v>
       </c>
       <c r="B278" t="n">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="C278" t="n">
         <v>0</v>
       </c>
       <c r="D278" t="n">
-        <v>-13</v>
+        <v>-4</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F278" t="inlineStr"/>
@@ -61398,13 +61398,13 @@
         <v>0</v>
       </c>
       <c r="B279" t="n">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="C279" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D279" t="n">
-        <v>-8</v>
+        <v>-5</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
@@ -61614,16 +61614,16 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="B280" t="n">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="C280" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D280" t="n">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
@@ -61836,13 +61836,13 @@
         <v>0</v>
       </c>
       <c r="B281" t="n">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="C281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D281" t="n">
-        <v>-9</v>
+        <v>-10</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
@@ -62052,20 +62052,20 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B282" t="n">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D282" t="n">
-        <v>5</v>
+        <v>-4</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F282" t="inlineStr"/>
@@ -62271,20 +62271,20 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="B283" t="n">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="C283" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="D283" t="n">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F283" t="inlineStr"/>
@@ -62490,20 +62490,20 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B284" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="C284" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D284" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量增</t>
         </is>
       </c>
       <c r="F284" t="inlineStr"/>
@@ -62709,20 +62709,20 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="B285" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="C285" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D285" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F285" t="inlineStr"/>
@@ -63362,16 +63362,16 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="B288" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C288" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D288" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
@@ -63581,16 +63581,16 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B289" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C289" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D289" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
@@ -63803,17 +63803,17 @@
         <v>0</v>
       </c>
       <c r="B290" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C290" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D290" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F290" t="inlineStr"/>
@@ -64019,16 +64019,16 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B291" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C291" t="n">
         <v>0</v>
       </c>
       <c r="D291" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
@@ -64238,16 +64238,16 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
+        <v>0</v>
+      </c>
+      <c r="B292" t="n">
+        <v>14</v>
+      </c>
+      <c r="C292" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D292" t="n">
         <v>1</v>
-      </c>
-      <c r="B292" t="n">
-        <v>28</v>
-      </c>
-      <c r="C292" t="n">
-        <v>1</v>
-      </c>
-      <c r="D292" t="n">
-        <v>-5</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
@@ -64457,20 +64457,20 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B293" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="C293" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D293" t="n">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F293" t="inlineStr"/>
@@ -64676,20 +64676,20 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B294" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C294" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D294" t="n">
-        <v>40</v>
+        <v>-7</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F294" t="inlineStr"/>
@@ -64898,17 +64898,17 @@
         <v>0</v>
       </c>
       <c r="B295" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C295" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D295" t="n">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F295" t="inlineStr"/>
@@ -65114,20 +65114,20 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="B296" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C296" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D296" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F296" t="inlineStr"/>
@@ -65770,13 +65770,13 @@
         <v>3</v>
       </c>
       <c r="B299" t="n">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="C299" t="n">
+        <v>1</v>
+      </c>
+      <c r="D299" t="n">
         <v>-1</v>
-      </c>
-      <c r="D299" t="n">
-        <v>-5</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
@@ -65998,16 +65998,16 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B300" t="n">
-        <v>109</v>
+        <v>60</v>
       </c>
       <c r="C300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D300" t="n">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
@@ -66229,16 +66229,16 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B301" t="n">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="C301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D301" t="n">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
@@ -66460,20 +66460,20 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B302" t="n">
-        <v>118</v>
+        <v>66</v>
       </c>
       <c r="C302" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D302" t="n">
-        <v>-11</v>
+        <v>-6</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
@@ -66683,20 +66683,20 @@
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B303" t="n">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="C303" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D303" t="n">
-        <v>-10</v>
+        <v>-1</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F303" t="inlineStr">
@@ -66906,20 +66906,20 @@
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B304" t="n">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="C304" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D304" t="n">
-        <v>-18</v>
+        <v>-7</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F304" t="inlineStr">
@@ -67129,20 +67129,20 @@
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B305" t="n">
-        <v>157</v>
+        <v>80</v>
       </c>
       <c r="C305" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="D305" t="n">
-        <v>157</v>
+        <v>-13</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價漲量縮</t>
         </is>
       </c>
       <c r="F305" t="inlineStr">
@@ -67352,20 +67352,20 @@
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B306" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="C306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D306" t="n">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
@@ -67575,20 +67575,20 @@
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="B307" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="C307" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="D307" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
@@ -68240,16 +68240,16 @@
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="B310" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C310" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D310" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
@@ -68459,20 +68459,20 @@
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="B311" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C311" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D311" t="n">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F311" t="inlineStr"/>
@@ -68678,16 +68678,16 @@
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="B312" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C312" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D312" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
@@ -68897,20 +68897,20 @@
     </row>
     <row r="313">
       <c r="A313" t="n">
+        <v>-5</v>
+      </c>
+      <c r="B313" t="n">
+        <v>22</v>
+      </c>
+      <c r="C313" t="n">
         <v>-3</v>
       </c>
-      <c r="B313" t="n">
-        <v>35</v>
-      </c>
-      <c r="C313" t="n">
-        <v>-2</v>
-      </c>
       <c r="D313" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F313" t="inlineStr"/>
@@ -69116,16 +69116,16 @@
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="B314" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C314" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D314" t="n">
         <v>1</v>
-      </c>
-      <c r="D314" t="n">
-        <v>-3</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
@@ -69335,16 +69335,16 @@
     </row>
     <row r="315">
       <c r="A315" t="n">
+        <v>1</v>
+      </c>
+      <c r="B315" t="n">
+        <v>18</v>
+      </c>
+      <c r="C315" t="n">
+        <v>1</v>
+      </c>
+      <c r="D315" t="n">
         <v>-2</v>
-      </c>
-      <c r="B315" t="n">
-        <v>36</v>
-      </c>
-      <c r="C315" t="n">
-        <v>2</v>
-      </c>
-      <c r="D315" t="n">
-        <v>-6</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
@@ -69554,20 +69554,20 @@
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="B316" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C316" t="n">
-        <v>-4</v>
+        <v>1</v>
       </c>
       <c r="D316" t="n">
-        <v>42</v>
+        <v>-5</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>價跌量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F316" t="inlineStr"/>
@@ -69773,20 +69773,20 @@
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B317" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C317" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D317" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F317" t="inlineStr"/>
@@ -69992,20 +69992,20 @@
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="B318" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="C318" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="D318" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價跌量增</t>
         </is>
       </c>
       <c r="F318" t="inlineStr"/>
@@ -70645,20 +70645,20 @@
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B321" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C321" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量-</t>
         </is>
       </c>
       <c r="F321" t="inlineStr">
@@ -70871,13 +70871,13 @@
         <v>0</v>
       </c>
       <c r="B322" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C322" t="n">
         <v>1</v>
       </c>
       <c r="D322" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
@@ -71090,17 +71090,17 @@
         <v>-1</v>
       </c>
       <c r="B323" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C323" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D323" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F323" t="inlineStr"/>
@@ -71306,20 +71306,20 @@
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="B324" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C324" t="n">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="D324" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>價跌量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F324" t="inlineStr"/>
@@ -71525,16 +71525,16 @@
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B325" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C325" t="n">
         <v>1</v>
       </c>
       <c r="D325" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
@@ -71744,20 +71744,20 @@
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B326" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C326" t="n">
-        <v>3</v>
+        <v>-2</v>
       </c>
       <c r="D326" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>價漲量-</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F326" t="inlineStr"/>
@@ -71963,20 +71963,20 @@
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="B327" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C327" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="D327" t="n">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F327" t="inlineStr"/>
@@ -72185,10 +72185,10 @@
         <v>0</v>
       </c>
       <c r="B328" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D328" t="n">
         <v>0</v>
@@ -72401,20 +72401,20 @@
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B329" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C329" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D329" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F329" t="inlineStr"/>
@@ -73054,20 +73054,20 @@
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B332" t="n">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="C332" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D332" t="n">
-        <v>-5</v>
+        <v>-21</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價漲量縮</t>
         </is>
       </c>
       <c r="F332" t="inlineStr"/>
@@ -73276,17 +73276,17 @@
         <v>-2</v>
       </c>
       <c r="B333" t="n">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="C333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D333" t="n">
-        <v>-14</v>
+        <v>-4</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F333" t="inlineStr"/>
@@ -73492,20 +73492,20 @@
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="B334" t="n">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="C334" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="D334" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F334" t="inlineStr"/>
@@ -73711,16 +73711,16 @@
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="B335" t="n">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="C335" t="n">
         <v>-2</v>
       </c>
       <c r="D335" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E335" t="inlineStr">
         <is>
@@ -73930,20 +73930,20 @@
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B336" t="n">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="C336" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D336" t="n">
-        <v>-18</v>
+        <v>-8</v>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>價漲量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F336" t="inlineStr"/>
@@ -74149,20 +74149,20 @@
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="B337" t="n">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="C337" t="n">
         <v>0</v>
       </c>
       <c r="D337" t="n">
-        <v>-58</v>
+        <v>-7</v>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>價-量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F337" t="inlineStr"/>
@@ -74368,20 +74368,20 @@
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="B338" t="n">
-        <v>172</v>
+        <v>66</v>
       </c>
       <c r="C338" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="D338" t="n">
-        <v>172</v>
+        <v>-9</v>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F338" t="inlineStr"/>
@@ -74587,20 +74587,20 @@
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B339" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D339" t="n">
-        <v>0</v>
+        <v>-56</v>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F339" t="inlineStr"/>
@@ -74806,20 +74806,20 @@
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B340" t="n">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="C340" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D340" t="n">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F340" t="inlineStr"/>
@@ -75459,16 +75459,16 @@
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B343" t="n">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="C343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D343" t="n">
-        <v>-4</v>
+        <v>-9</v>
       </c>
       <c r="E343" t="inlineStr">
         <is>
@@ -75676,20 +75676,20 @@
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B344" t="n">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="C344" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D344" t="n">
-        <v>-6</v>
+        <v>-31</v>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量縮</t>
         </is>
       </c>
       <c r="F344" t="inlineStr"/>
@@ -75896,13 +75896,13 @@
         <v>0</v>
       </c>
       <c r="B345" t="n">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C345" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D345" t="n">
-        <v>-7</v>
+        <v>2</v>
       </c>
       <c r="E345" t="inlineStr">
         <is>
@@ -76110,20 +76110,20 @@
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B346" t="n">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="C346" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="D346" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>價-量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F346" t="inlineStr"/>
@@ -76327,16 +76327,16 @@
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B347" t="n">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="C347" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D347" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E347" t="inlineStr">
         <is>
@@ -76544,20 +76544,20 @@
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="B348" t="n">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="C348" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D348" t="n">
-        <v>-17</v>
+        <v>-3</v>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>價漲量縮</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F348" t="inlineStr"/>
@@ -76761,20 +76761,20 @@
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="B349" t="n">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="C349" t="n">
-        <v>-5</v>
+        <v>2</v>
       </c>
       <c r="D349" t="n">
-        <v>88</v>
+        <v>-8</v>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>價跌量增</t>
+          <t>價-量-</t>
         </is>
       </c>
       <c r="F349" t="inlineStr"/>
@@ -76978,16 +76978,16 @@
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="B350" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="C350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D350" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="E350" t="inlineStr">
         <is>
@@ -77195,20 +77195,20 @@
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="B351" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="C351" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D351" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>價-量-</t>
+          <t>價-量增</t>
         </is>
       </c>
       <c r="F351" t="inlineStr"/>
